--- a/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="loytel" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
     <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="934">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -1942,6 +1942,9 @@
       </rPr>
       <t xml:space="preserve">vernis_gold9</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">!fromBook</t>
   </si>
   <si>
     <t xml:space="preserve">wait</t>
@@ -4627,10 +4630,10 @@
   </sheetPr>
   <dimension ref="A1:N590"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L582" sqref="L582"/>
-      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
+      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -4712,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -4736,7 +4739,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -4756,7 +4759,7 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -4791,7 +4794,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -4811,7 +4814,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -4831,7 +4834,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -4858,7 +4861,7 @@
         <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -4880,7 +4883,7 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -4900,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" ht="13.8">
@@ -4920,7 +4923,7 @@
         <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -4940,7 +4943,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" ht="13.8">
@@ -4960,7 +4963,7 @@
         <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" ht="13.8">
@@ -4980,7 +4983,7 @@
         <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -5003,7 +5006,7 @@
         <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -5023,7 +5026,7 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -5055,7 +5058,7 @@
         <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -5083,7 +5086,7 @@
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -5111,7 +5114,7 @@
         <v>62</v>
       </c>
       <c r="L44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -5139,7 +5142,7 @@
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" ht="75.35">
@@ -5153,7 +5156,7 @@
         <v>66</v>
       </c>
       <c r="L49" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" ht="85.05">
@@ -5167,7 +5170,7 @@
         <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -5195,7 +5198,7 @@
         <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="55" ht="105.95">
@@ -5209,7 +5212,7 @@
         <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" ht="46.25">
@@ -5223,7 +5226,7 @@
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -5247,7 +5250,7 @@
         <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="61" ht="74.6">
@@ -5261,7 +5264,7 @@
         <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -5285,7 +5288,7 @@
         <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" ht="35.05">
@@ -5299,7 +5302,7 @@
         <v>83</v>
       </c>
       <c r="L66" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" ht="124.6">
@@ -5313,7 +5316,7 @@
         <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" ht="13.8">
@@ -5327,7 +5330,7 @@
         <v>87</v>
       </c>
       <c r="L68" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" ht="13.8">
@@ -5355,7 +5358,7 @@
         <v>91</v>
       </c>
       <c r="L70" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" ht="13.8">
@@ -5388,7 +5391,7 @@
         <v>97</v>
       </c>
       <c r="L74" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -5417,7 +5420,7 @@
         <v>102</v>
       </c>
       <c r="L80" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -5441,7 +5444,7 @@
         <v>105</v>
       </c>
       <c r="L89" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" ht="13.8">
@@ -5455,7 +5458,7 @@
         <v>107</v>
       </c>
       <c r="L90" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" ht="85.05">
@@ -5469,7 +5472,7 @@
         <v>109</v>
       </c>
       <c r="L91" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -5506,7 +5509,7 @@
         <v>113</v>
       </c>
       <c r="L97" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" ht="95.5">
@@ -5520,7 +5523,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -5602,7 +5605,7 @@
         <v>122</v>
       </c>
       <c r="L108" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" ht="23.85">
@@ -5619,7 +5622,7 @@
         <v>124</v>
       </c>
       <c r="L109" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" ht="13.8">
@@ -5633,7 +5636,7 @@
         <v>126</v>
       </c>
       <c r="L110" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -5655,7 +5658,7 @@
         <v>129</v>
       </c>
       <c r="L112" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" ht="13.8">
@@ -5683,7 +5686,7 @@
         <v>131</v>
       </c>
       <c r="L114" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="115" ht="13.8">
@@ -5700,7 +5703,7 @@
         <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="116" ht="13.8">
@@ -5717,7 +5720,7 @@
         <v>135</v>
       </c>
       <c r="L116" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117" ht="13.8">
@@ -5731,7 +5734,7 @@
         <v>137</v>
       </c>
       <c r="L117" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="118" ht="57.45">
@@ -5745,7 +5748,7 @@
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" ht="35.05">
@@ -5759,7 +5762,7 @@
         <v>141</v>
       </c>
       <c r="L119" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" ht="23.85">
@@ -5776,7 +5779,7 @@
         <v>143</v>
       </c>
       <c r="L120" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" ht="13.8">
@@ -5790,7 +5793,7 @@
         <v>145</v>
       </c>
       <c r="L121" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122" ht="13.8">
@@ -5824,7 +5827,7 @@
         <v>147</v>
       </c>
       <c r="L123" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" ht="13.8">
@@ -5841,7 +5844,7 @@
         <v>149</v>
       </c>
       <c r="L124" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125" ht="13.8">
@@ -5898,7 +5901,7 @@
         <v>156</v>
       </c>
       <c r="L134" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="135" ht="57.45">
@@ -5912,7 +5915,7 @@
         <v>158</v>
       </c>
       <c r="L135" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="136" ht="13.8">
@@ -5929,7 +5932,7 @@
         <v>160</v>
       </c>
       <c r="L136" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="137" ht="35.05">
@@ -5943,7 +5946,7 @@
         <v>162</v>
       </c>
       <c r="L137" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" ht="35.05">
@@ -5960,7 +5963,7 @@
         <v>164</v>
       </c>
       <c r="L138" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" ht="13.8">
@@ -5991,7 +5994,7 @@
         <v>166</v>
       </c>
       <c r="L140" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="141" ht="13.8">
@@ -6005,7 +6008,7 @@
         <v>168</v>
       </c>
       <c r="L141" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142" ht="68.65">
@@ -6019,7 +6022,7 @@
         <v>170</v>
       </c>
       <c r="L142" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="143" ht="23.85">
@@ -6036,7 +6039,7 @@
         <v>172</v>
       </c>
       <c r="L143" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" ht="13.8">
@@ -6050,7 +6053,7 @@
         <v>137</v>
       </c>
       <c r="L144" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="145" ht="68.65">
@@ -6067,7 +6070,7 @@
         <v>174</v>
       </c>
       <c r="L145" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="146" ht="13.8">
@@ -6081,7 +6084,7 @@
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="147" ht="13.8">
@@ -6098,7 +6101,7 @@
         <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="148" ht="23.85">
@@ -6112,7 +6115,7 @@
         <v>180</v>
       </c>
       <c r="L148" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -6176,7 +6179,7 @@
         <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="159" ht="23.85">
@@ -6190,7 +6193,7 @@
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="160" ht="23.85">
@@ -6207,7 +6210,7 @@
         <v>190</v>
       </c>
       <c r="L160" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" ht="68.65">
@@ -6221,7 +6224,7 @@
         <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" ht="91">
@@ -6235,7 +6238,7 @@
         <v>194</v>
       </c>
       <c r="L162" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" ht="46.25">
@@ -6249,7 +6252,7 @@
         <v>196</v>
       </c>
       <c r="L163" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="164" ht="13.8">
@@ -6280,7 +6283,7 @@
         <v>199</v>
       </c>
       <c r="L165" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="166" ht="57.45">
@@ -6297,7 +6300,7 @@
         <v>201</v>
       </c>
       <c r="L166" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="167" ht="13.8">
@@ -6331,7 +6334,7 @@
         <v>203</v>
       </c>
       <c r="L168" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="169" ht="23.85">
@@ -6345,7 +6348,7 @@
         <v>205</v>
       </c>
       <c r="L169" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="170" ht="35.05">
@@ -6362,7 +6365,7 @@
         <v>207</v>
       </c>
       <c r="L170" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="171" ht="35.05">
@@ -6376,7 +6379,7 @@
         <v>209</v>
       </c>
       <c r="L171" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="172" ht="56.7">
@@ -6390,7 +6393,7 @@
         <v>211</v>
       </c>
       <c r="L172" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" ht="13.8">
@@ -6451,7 +6454,7 @@
         <v>215</v>
       </c>
       <c r="L182" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="183" ht="13.8">
@@ -6468,7 +6471,7 @@
         <v>217</v>
       </c>
       <c r="L183" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184" ht="24.6">
@@ -6482,7 +6485,7 @@
         <v>219</v>
       </c>
       <c r="L184" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="185" ht="13.8">
@@ -6530,7 +6533,7 @@
         <v>221</v>
       </c>
       <c r="L187" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="188" ht="35.05">
@@ -6544,7 +6547,7 @@
         <v>223</v>
       </c>
       <c r="L188" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="189" ht="13.8">
@@ -6592,7 +6595,7 @@
         <v>225</v>
       </c>
       <c r="L191" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="192" ht="35.05">
@@ -6606,7 +6609,7 @@
         <v>227</v>
       </c>
       <c r="L192" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="193" ht="13.8">
@@ -6651,7 +6654,7 @@
         <v>229</v>
       </c>
       <c r="L195" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="196" ht="13.8">
@@ -6668,7 +6671,7 @@
         <v>231</v>
       </c>
       <c r="L196" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="197" ht="23.85">
@@ -6682,7 +6685,7 @@
         <v>233</v>
       </c>
       <c r="L197" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198" ht="13.8">
@@ -6710,7 +6713,7 @@
         <v>235</v>
       </c>
       <c r="L199" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200" ht="13.8">
@@ -6741,7 +6744,7 @@
         <v>237</v>
       </c>
       <c r="L201" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="202" ht="13.8">
@@ -6758,7 +6761,7 @@
         <v>239</v>
       </c>
       <c r="L202" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="203" ht="13.8">
@@ -6772,7 +6775,7 @@
         <v>241</v>
       </c>
       <c r="L203" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="204" ht="13.8">
@@ -6800,7 +6803,7 @@
         <v>243</v>
       </c>
       <c r="L205" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" ht="13.8">
@@ -6862,7 +6865,7 @@
         <v>246</v>
       </c>
       <c r="L216" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="217" ht="13.8">
@@ -6879,7 +6882,7 @@
         <v>248</v>
       </c>
       <c r="L217" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="218" ht="68.65">
@@ -6893,7 +6896,7 @@
         <v>250</v>
       </c>
       <c r="L218" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="219" ht="64.15">
@@ -6910,7 +6913,7 @@
         <v>252</v>
       </c>
       <c r="L219" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="220" ht="13.8">
@@ -6924,7 +6927,7 @@
         <v>254</v>
       </c>
       <c r="L220" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="221" ht="13.8">
@@ -6958,7 +6961,7 @@
         <v>256</v>
       </c>
       <c r="L222" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" ht="13.8">
@@ -6986,7 +6989,7 @@
         <v>258</v>
       </c>
       <c r="L224" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="225" ht="46.25">
@@ -7003,7 +7006,7 @@
         <v>260</v>
       </c>
       <c r="L225" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" ht="13.8">
@@ -7020,7 +7023,7 @@
         <v>262</v>
       </c>
       <c r="L226" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="227" ht="13.8">
@@ -7034,7 +7037,7 @@
         <v>264</v>
       </c>
       <c r="L227" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="228" ht="13.4">
@@ -7048,7 +7051,7 @@
         <v>266</v>
       </c>
       <c r="L228" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" ht="35.05">
@@ -7062,7 +7065,7 @@
         <v>268</v>
       </c>
       <c r="L229" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="230" ht="13.8">
@@ -7100,7 +7103,7 @@
         <v>272</v>
       </c>
       <c r="L239" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="240" ht="57.45">
@@ -7114,7 +7117,7 @@
         <v>274</v>
       </c>
       <c r="L240" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="241" ht="12.8">
@@ -7144,7 +7147,7 @@
         <v>277</v>
       </c>
       <c r="L244" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="245" ht="64.15">
@@ -7158,7 +7161,7 @@
         <v>279</v>
       </c>
       <c r="L245" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="246" ht="13.8">
@@ -7187,7 +7190,7 @@
         <v>281</v>
       </c>
       <c r="L247" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="248" ht="13.8">
@@ -7218,7 +7221,7 @@
         <v>283</v>
       </c>
       <c r="L249" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="250" ht="35.05">
@@ -7232,7 +7235,7 @@
         <v>285</v>
       </c>
       <c r="L250" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="251" ht="91">
@@ -7246,7 +7249,7 @@
         <v>287</v>
       </c>
       <c r="L251" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="252" ht="64.15">
@@ -7260,7 +7263,7 @@
         <v>289</v>
       </c>
       <c r="L252" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="253" ht="13.8">
@@ -7294,7 +7297,7 @@
         <v>292</v>
       </c>
       <c r="L257" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="258" ht="64.15">
@@ -7308,7 +7311,7 @@
         <v>294</v>
       </c>
       <c r="L258" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="259" ht="13.8">
@@ -7331,7 +7334,7 @@
         <v>297</v>
       </c>
       <c r="L260" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="261" ht="12.8">
@@ -7366,7 +7369,7 @@
         <v>300</v>
       </c>
       <c r="L266" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="267" ht="23.85">
@@ -7380,7 +7383,7 @@
         <v>302</v>
       </c>
       <c r="L267" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="268" ht="35.05">
@@ -7394,7 +7397,7 @@
         <v>304</v>
       </c>
       <c r="L268" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="269" ht="35.05">
@@ -7408,7 +7411,7 @@
         <v>306</v>
       </c>
       <c r="L269" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="270" ht="68.65">
@@ -7422,7 +7425,7 @@
         <v>308</v>
       </c>
       <c r="L270" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" ht="12.8">
@@ -7476,7 +7479,7 @@
         <v>313</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="280" ht="12.8">
@@ -7493,7 +7496,7 @@
         <v>315</v>
       </c>
       <c r="L280" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="281" ht="12.8">
@@ -7507,7 +7510,7 @@
         <v>317</v>
       </c>
       <c r="L281" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="282" ht="12.8">
@@ -7538,7 +7541,7 @@
         <v>319</v>
       </c>
       <c r="L283" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="284" ht="43.25">
@@ -7552,7 +7555,7 @@
         <v>321</v>
       </c>
       <c r="L284" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="285" ht="68.65">
@@ -7566,7 +7569,7 @@
         <v>323</v>
       </c>
       <c r="L285" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" ht="23.85">
@@ -7580,7 +7583,7 @@
         <v>325</v>
       </c>
       <c r="L286" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="287" ht="12.8">
@@ -7617,7 +7620,7 @@
         <v>331</v>
       </c>
       <c r="L294" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="295" ht="12.8">
@@ -7648,7 +7651,7 @@
         <v>333</v>
       </c>
       <c r="L296" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" ht="95.5">
@@ -7665,7 +7668,7 @@
         <v>335</v>
       </c>
       <c r="L297" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="298" ht="13.8">
@@ -7696,7 +7699,7 @@
         <v>337</v>
       </c>
       <c r="L299" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="300" ht="85.8">
@@ -7713,7 +7716,7 @@
         <v>339</v>
       </c>
       <c r="L300" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="301" ht="13.8">
@@ -7727,7 +7730,7 @@
         <v>341</v>
       </c>
       <c r="L301" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="302" ht="13.8">
@@ -7772,7 +7775,7 @@
         <v>343</v>
       </c>
       <c r="L304" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="305" ht="13.8">
@@ -7789,7 +7792,7 @@
         <v>345</v>
       </c>
       <c r="L305" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="306" ht="46.25">
@@ -7803,7 +7806,7 @@
         <v>347</v>
       </c>
       <c r="L306" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="307" ht="13.8">
@@ -7820,7 +7823,7 @@
         <v>349</v>
       </c>
       <c r="L307" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="308" ht="35.05">
@@ -7834,7 +7837,7 @@
         <v>351</v>
       </c>
       <c r="L308" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="309" ht="13.8">
@@ -7851,7 +7854,7 @@
         <v>353</v>
       </c>
       <c r="L309" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" ht="13.8">
@@ -7879,7 +7882,7 @@
         <v>355</v>
       </c>
       <c r="L311" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="312" ht="64.15">
@@ -7893,7 +7896,7 @@
         <v>357</v>
       </c>
       <c r="L312" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="313" ht="13.8">
@@ -7920,7 +7923,7 @@
         <v>360</v>
       </c>
       <c r="L318" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="319" ht="116.4">
@@ -7934,7 +7937,7 @@
         <v>362</v>
       </c>
       <c r="L319" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="320" ht="13.8">
@@ -7958,7 +7961,7 @@
         <v>366</v>
       </c>
       <c r="L321" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="322" ht="57.45">
@@ -7972,7 +7975,7 @@
         <v>368</v>
       </c>
       <c r="L322" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="323" ht="13.8">
@@ -8011,7 +8014,7 @@
         <v>371</v>
       </c>
       <c r="L330" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="331" ht="13.8">
@@ -8025,7 +8028,7 @@
         <v>373</v>
       </c>
       <c r="L331" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="332" ht="85.05">
@@ -8042,7 +8045,7 @@
         <v>375</v>
       </c>
       <c r="L332" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="333" ht="57.45">
@@ -8056,7 +8059,7 @@
         <v>377</v>
       </c>
       <c r="L333" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="334" ht="12.8">
@@ -8081,7 +8084,7 @@
         <v>379</v>
       </c>
       <c r="L336" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="338" ht="12.8">
@@ -8095,8 +8098,11 @@
       </c>
     </row>
     <row r="342" ht="12.8">
+      <c r="C342" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="E342" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F342" s="2">
         <v>3</v>
@@ -8110,20 +8116,20 @@
       <c r="E344" s="4"/>
       <c r="F344" s="11"/>
       <c r="G344" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H344" s="4"/>
       <c r="I344" s="1">
         <v>170</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K344" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="12.8">
@@ -8210,13 +8216,13 @@
         <v>171</v>
       </c>
       <c r="J350" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K350" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="13.8">
@@ -8227,20 +8233,20 @@
       <c r="E351" s="4"/>
       <c r="F351" s="11"/>
       <c r="G351" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="1">
         <v>172</v>
       </c>
       <c r="J351" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K351" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="57.45">
@@ -8258,13 +8264,13 @@
         <v>173</v>
       </c>
       <c r="J352" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K352" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="12.8">
@@ -8275,20 +8281,20 @@
       <c r="E353" s="4"/>
       <c r="F353" s="11"/>
       <c r="G353" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H353" s="4"/>
       <c r="I353" s="1">
         <v>174</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K353" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="35.05">
@@ -8306,13 +8312,13 @@
         <v>175</v>
       </c>
       <c r="J354" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K354" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L354" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="13.8">
@@ -8323,7 +8329,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="11"/>
       <c r="G355" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H355" s="4"/>
       <c r="I355" s="1">
@@ -8354,13 +8360,13 @@
         <v>177</v>
       </c>
       <c r="J356" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K356" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="13.8">
@@ -8371,20 +8377,20 @@
       <c r="E357" s="4"/>
       <c r="F357" s="11"/>
       <c r="G357" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H357" s="4"/>
       <c r="I357" s="1">
         <v>178</v>
       </c>
       <c r="J357" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K357" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L357" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22.35">
@@ -8426,13 +8432,13 @@
         <v>180</v>
       </c>
       <c r="J359" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K359" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L359" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="23.85">
@@ -8443,20 +8449,20 @@
       <c r="E360" s="4"/>
       <c r="F360" s="11"/>
       <c r="G360" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H360" s="4"/>
       <c r="I360" s="1">
         <v>181</v>
       </c>
       <c r="J360" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K360" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L360" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="23.85">
@@ -8467,20 +8473,20 @@
       <c r="E361" s="4"/>
       <c r="F361" s="11"/>
       <c r="G361" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H361" s="4"/>
       <c r="I361" s="1">
         <v>182</v>
       </c>
       <c r="J361" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K361" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="13.8">
@@ -8506,10 +8512,10 @@
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F363" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
@@ -8523,7 +8529,7 @@
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F364" s="2">
         <v>3</v>
@@ -8559,20 +8565,20 @@
       <c r="E366" s="4"/>
       <c r="F366" s="11"/>
       <c r="G366" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H366" s="4"/>
       <c r="I366" s="1">
         <v>183</v>
       </c>
       <c r="J366" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K366" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="13.8">
@@ -8607,7 +8613,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="11"/>
       <c r="G368" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H368" s="4"/>
       <c r="I368" s="1">
@@ -8631,20 +8637,20 @@
       <c r="E369" s="4"/>
       <c r="F369" s="11"/>
       <c r="G369" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H369" s="4"/>
       <c r="I369" s="1">
         <v>186</v>
       </c>
       <c r="J369" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K369" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="12.8">
@@ -8662,13 +8668,13 @@
         <v>187</v>
       </c>
       <c r="J370" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K370" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="12.8">
@@ -8686,13 +8692,13 @@
         <v>188</v>
       </c>
       <c r="J371" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K371" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="23.85">
@@ -8703,20 +8709,20 @@
       <c r="E372" s="4"/>
       <c r="F372" s="11"/>
       <c r="G372" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H372" s="4"/>
       <c r="I372" s="1">
         <v>189</v>
       </c>
       <c r="J372" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K372" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="23.85">
@@ -8734,13 +8740,13 @@
         <v>190</v>
       </c>
       <c r="J373" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K373" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="12.8">
@@ -8775,13 +8781,13 @@
         <v>191</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K375" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L375" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="12.8">
@@ -8824,13 +8830,13 @@
         <v>192</v>
       </c>
       <c r="J378" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K378" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L378" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="12.8">
@@ -8841,20 +8847,20 @@
       <c r="E379" s="4"/>
       <c r="F379" s="11"/>
       <c r="G379" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H379" s="4"/>
       <c r="I379" s="1">
         <v>193</v>
       </c>
       <c r="J379" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K379" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L379" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="12.8">
@@ -8896,13 +8902,13 @@
         <v>195</v>
       </c>
       <c r="J381" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K381" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L381" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="23.85">
@@ -8913,20 +8919,20 @@
       <c r="E382" s="4"/>
       <c r="F382" s="11"/>
       <c r="G382" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H382" s="4"/>
       <c r="I382" s="1">
         <v>196</v>
       </c>
       <c r="J382" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K382" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="12.8">
@@ -8937,20 +8943,20 @@
       <c r="E383" s="4"/>
       <c r="F383" s="11"/>
       <c r="G383" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H383" s="4"/>
       <c r="I383" s="1">
         <v>197</v>
       </c>
       <c r="J383" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K383" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L383" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="35.05">
@@ -8961,20 +8967,20 @@
       <c r="E384" s="4"/>
       <c r="F384" s="11"/>
       <c r="G384" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H384" s="4"/>
       <c r="I384" s="1">
         <v>198</v>
       </c>
       <c r="J384" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K384" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L384" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="13.8">
@@ -8992,13 +8998,13 @@
         <v>199</v>
       </c>
       <c r="J385" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K385" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="13.8">
@@ -9009,20 +9015,20 @@
       <c r="E386" s="4"/>
       <c r="F386" s="11"/>
       <c r="G386" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H386" s="4"/>
       <c r="I386" s="1">
         <v>200</v>
       </c>
       <c r="J386" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K386" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L386" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="13.8">
@@ -9040,13 +9046,13 @@
         <v>201</v>
       </c>
       <c r="J387" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K387" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L387" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="13.8">
@@ -9064,13 +9070,13 @@
         <v>202</v>
       </c>
       <c r="J388" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K388" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L388" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="13.8">
@@ -9081,20 +9087,20 @@
       <c r="E389" s="4"/>
       <c r="F389" s="11"/>
       <c r="G389" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H389" s="4"/>
       <c r="I389" s="1">
         <v>203</v>
       </c>
       <c r="J389" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K389" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L389" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="13.8">
@@ -9112,13 +9118,13 @@
         <v>204</v>
       </c>
       <c r="J390" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K390" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="13.8">
@@ -9129,20 +9135,20 @@
       <c r="E391" s="4"/>
       <c r="F391" s="16"/>
       <c r="G391" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H391" s="4"/>
       <c r="I391" s="1">
         <v>205</v>
       </c>
       <c r="J391" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K391" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="23.85">
@@ -9153,20 +9159,20 @@
       <c r="E392" s="4"/>
       <c r="F392" s="16"/>
       <c r="G392" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H392" s="4"/>
       <c r="I392" s="1">
         <v>206</v>
       </c>
       <c r="J392" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K392" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L392" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="13.8">
@@ -9184,13 +9190,13 @@
         <v>207</v>
       </c>
       <c r="J393" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K393" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L393" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="13.8">
@@ -9214,20 +9220,20 @@
       <c r="E395" s="4"/>
       <c r="F395" s="16"/>
       <c r="G395" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H395" s="4"/>
       <c r="I395" s="1">
         <v>208</v>
       </c>
       <c r="J395" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K395" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L395" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="13.8">
@@ -9245,13 +9251,13 @@
         <v>209</v>
       </c>
       <c r="J396" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K396" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L396" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="13.8">
@@ -9275,20 +9281,20 @@
       <c r="E398" s="4"/>
       <c r="F398" s="16"/>
       <c r="G398" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H398" s="4"/>
       <c r="I398" s="1">
         <v>210</v>
       </c>
       <c r="J398" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K398" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L398" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="13.8">
@@ -9306,13 +9312,13 @@
         <v>211</v>
       </c>
       <c r="J399" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K399" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L399" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="13.8">
@@ -9367,13 +9373,13 @@
         <v>213</v>
       </c>
       <c r="J402" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K402" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="13.8">
@@ -9384,7 +9390,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="16"/>
       <c r="G403" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H403" s="4"/>
       <c r="I403" s="1">
@@ -9408,20 +9414,20 @@
       <c r="E404" s="4"/>
       <c r="F404" s="16"/>
       <c r="G404" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H404" s="4"/>
       <c r="I404" s="1">
         <v>215</v>
       </c>
       <c r="J404" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K404" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L404" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="13.8">
@@ -9439,13 +9445,13 @@
         <v>216</v>
       </c>
       <c r="J405" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K405" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L405" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="23.85">
@@ -9456,20 +9462,20 @@
       <c r="E406" s="4"/>
       <c r="F406" s="16"/>
       <c r="G406" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H406" s="4"/>
       <c r="I406" s="1">
         <v>217</v>
       </c>
       <c r="J406" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K406" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L406" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="23.85">
@@ -9487,13 +9493,13 @@
         <v>218</v>
       </c>
       <c r="J407" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K407" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="35.05">
@@ -9504,20 +9510,20 @@
       <c r="E408" s="4"/>
       <c r="F408" s="16"/>
       <c r="G408" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H408" s="4"/>
       <c r="I408" s="1">
         <v>219</v>
       </c>
       <c r="J408" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K408" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="13.8">
@@ -9535,13 +9541,13 @@
         <v>220</v>
       </c>
       <c r="J409" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K409" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L409" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="13.8">
@@ -9559,13 +9565,13 @@
         <v>221</v>
       </c>
       <c r="J410" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K410" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L410" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="13.8">
@@ -9576,7 +9582,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="16"/>
       <c r="G411" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H411" s="4"/>
       <c r="I411" s="1">
@@ -9600,20 +9606,20 @@
       <c r="E412" s="4"/>
       <c r="F412" s="16"/>
       <c r="G412" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H412" s="4"/>
       <c r="I412" s="1">
         <v>223</v>
       </c>
       <c r="J412" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K412" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L412" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="23.85">
@@ -9631,13 +9637,13 @@
         <v>224</v>
       </c>
       <c r="J413" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K413" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="13.8">
@@ -9648,20 +9654,20 @@
       <c r="E414" s="4"/>
       <c r="F414" s="16"/>
       <c r="G414" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H414" s="4"/>
       <c r="I414" s="1">
         <v>225</v>
       </c>
       <c r="J414" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K414" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="57.45">
@@ -9679,13 +9685,13 @@
         <v>226</v>
       </c>
       <c r="J415" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K415" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="13.8">
@@ -9703,13 +9709,13 @@
         <v>227</v>
       </c>
       <c r="J416" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K416" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="13.8">
@@ -9720,20 +9726,20 @@
       <c r="E417" s="4"/>
       <c r="F417" s="16"/>
       <c r="G417" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H417" s="4"/>
       <c r="I417" s="1">
         <v>228</v>
       </c>
       <c r="J417" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K417" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="13.8">
@@ -9744,7 +9750,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="16"/>
       <c r="G418" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H418" s="4"/>
       <c r="I418" s="1">
@@ -9768,20 +9774,20 @@
       <c r="E419" s="4"/>
       <c r="F419" s="16"/>
       <c r="G419" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H419" s="4"/>
       <c r="I419" s="1">
         <v>230</v>
       </c>
       <c r="J419" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K419" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L419" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="13.8">
@@ -9823,13 +9829,13 @@
         <v>232</v>
       </c>
       <c r="J421" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K421" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L421" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="13.8">
@@ -9840,20 +9846,20 @@
       <c r="E422" s="4"/>
       <c r="F422" s="16"/>
       <c r="G422" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H422" s="4"/>
       <c r="I422" s="1">
         <v>233</v>
       </c>
       <c r="J422" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K422" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L422" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="12.8">
@@ -9903,7 +9909,7 @@
     </row>
     <row r="427" ht="12.8">
       <c r="A427" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" ht="12.8">
@@ -9911,7 +9917,7 @@
         <v>326</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="430" s="1" customFormat="1" ht="25.35">
@@ -9927,13 +9933,13 @@
         <v>234</v>
       </c>
       <c r="J430" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K430" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L430" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="13.8">
@@ -9944,20 +9950,20 @@
       <c r="E431" s="4"/>
       <c r="F431" s="16"/>
       <c r="G431" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H431" s="4"/>
       <c r="I431" s="1">
         <v>235</v>
       </c>
       <c r="J431" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K431" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L431" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="25.35">
@@ -9973,13 +9979,13 @@
         <v>236</v>
       </c>
       <c r="J432" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K432" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L432" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="102.2">
@@ -9997,13 +10003,13 @@
         <v>237</v>
       </c>
       <c r="J433" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K433" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L433" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="13.8">
@@ -10021,13 +10027,13 @@
         <v>238</v>
       </c>
       <c r="J434" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K434" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L434" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="13.8">
@@ -10038,20 +10044,20 @@
       <c r="E435" s="4"/>
       <c r="F435" s="16"/>
       <c r="G435" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H435" s="4"/>
       <c r="I435" s="1">
         <v>239</v>
       </c>
       <c r="J435" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K435" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L435" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="23.85">
@@ -10069,13 +10075,13 @@
         <v>240</v>
       </c>
       <c r="J436" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K436" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L436" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="57.45">
@@ -10093,13 +10099,13 @@
         <v>241</v>
       </c>
       <c r="J437" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K437" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L437" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="46.25">
@@ -10115,13 +10121,13 @@
         <v>242</v>
       </c>
       <c r="J438" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K438" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="13.8">
@@ -10132,20 +10138,20 @@
       <c r="E439" s="4"/>
       <c r="F439" s="16"/>
       <c r="G439" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H439" s="4"/>
       <c r="I439" s="1">
         <v>299</v>
       </c>
       <c r="J439" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K439" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L439" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="23.85">
@@ -10161,13 +10167,13 @@
         <v>300</v>
       </c>
       <c r="J440" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K440" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L440" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="441" ht="12.8">
@@ -10182,7 +10188,7 @@
     </row>
     <row r="444" ht="12.8">
       <c r="A444" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="445" ht="12.8">
@@ -10190,7 +10196,7 @@
         <v>94</v>
       </c>
       <c r="F445" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="446" ht="23.85">
@@ -10198,13 +10204,13 @@
         <v>243</v>
       </c>
       <c r="J446" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K446" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L446" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="447" ht="23.85">
@@ -10213,13 +10219,13 @@
         <v>244</v>
       </c>
       <c r="J447" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K447" s="14" t="s">
         <v>217</v>
       </c>
       <c r="L447" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="448" ht="13.8">
@@ -10228,11 +10234,11 @@
         <v>245</v>
       </c>
       <c r="J448" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K448" s="14"/>
       <c r="L448" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="449" ht="35.05">
@@ -10241,11 +10247,11 @@
         <v>246</v>
       </c>
       <c r="J449" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K449" s="14"/>
       <c r="L449" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="450" ht="13.8">
@@ -10254,11 +10260,11 @@
         <v>247</v>
       </c>
       <c r="J450" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K450" s="14"/>
       <c r="L450" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="451" ht="12.8">
@@ -10273,7 +10279,7 @@
     </row>
     <row r="455" ht="12.8">
       <c r="A455" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" ht="12.8">
@@ -10289,13 +10295,13 @@
         <v>270</v>
       </c>
       <c r="J460" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K460" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L460" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="461" ht="46.25">
@@ -10303,13 +10309,13 @@
         <v>271</v>
       </c>
       <c r="J461" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K461" s="19" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L461" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="462" ht="23.85">
@@ -10320,13 +10326,13 @@
         <v>272</v>
       </c>
       <c r="J462" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K462" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L462" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="463" ht="35.05">
@@ -10334,13 +10340,13 @@
         <v>273</v>
       </c>
       <c r="J463" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K463" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L463" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="464" ht="35.05">
@@ -10348,13 +10354,13 @@
         <v>274</v>
       </c>
       <c r="J464" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K464" s="18" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L464" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -10367,13 +10373,13 @@
         <v>275</v>
       </c>
       <c r="J465" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K465" s="19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L465" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="466" ht="37.3">
@@ -10381,13 +10387,13 @@
         <v>276</v>
       </c>
       <c r="J466" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K466" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L466" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="467" ht="13.8">
@@ -10395,13 +10401,13 @@
         <v>277</v>
       </c>
       <c r="J467" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K467" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L467" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="468" ht="13.8">
@@ -10409,13 +10415,13 @@
         <v>278</v>
       </c>
       <c r="J468" s="15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K468" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L468" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="469" ht="13.8">
@@ -10453,13 +10459,13 @@
         <v>280</v>
       </c>
       <c r="J471" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K471" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L471" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="472" ht="35.05">
@@ -10470,13 +10476,13 @@
         <v>281</v>
       </c>
       <c r="J472" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K472" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L472" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="473" ht="13.8">
@@ -10484,13 +10490,13 @@
         <v>282</v>
       </c>
       <c r="J473" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K473" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L473" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="474" ht="13.8">
@@ -10511,30 +10517,30 @@
         <v>283</v>
       </c>
       <c r="J475" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K475" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L475" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="476" ht="13.8">
       <c r="G476" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I476" s="1">
         <v>284</v>
       </c>
       <c r="J476" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K476" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L476" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="477" ht="79.85">
@@ -10545,13 +10551,13 @@
         <v>285</v>
       </c>
       <c r="J477" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K477" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L477" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="478" ht="102.2">
@@ -10562,13 +10568,13 @@
         <v>286</v>
       </c>
       <c r="J478" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K478" s="19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L478" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="479" ht="13.8">
@@ -10593,13 +10599,13 @@
         <v>288</v>
       </c>
       <c r="J480" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K480" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L480" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="481" ht="23.85">
@@ -10610,13 +10616,13 @@
         <v>289</v>
       </c>
       <c r="J481" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K481" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L481" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="482" ht="23.85">
@@ -10627,30 +10633,30 @@
         <v>290</v>
       </c>
       <c r="J482" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K482" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L482" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="483" ht="13.8">
       <c r="G483" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I483" s="1">
         <v>291</v>
       </c>
       <c r="J483" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K483" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L483" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="484" ht="13.8">
@@ -10658,13 +10664,13 @@
         <v>292</v>
       </c>
       <c r="J484" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K484" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L484" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="485" ht="13.8">
@@ -10686,13 +10692,13 @@
         <v>294</v>
       </c>
       <c r="J486" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K486" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L486" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="487" ht="46.25">
@@ -10700,13 +10706,13 @@
         <v>295</v>
       </c>
       <c r="J487" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K487" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L487" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="488" ht="35.05">
@@ -10714,13 +10720,13 @@
         <v>296</v>
       </c>
       <c r="J488" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K488" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L488" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="489" ht="35.05">
@@ -10728,13 +10734,13 @@
         <v>297</v>
       </c>
       <c r="J489" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K489" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L489" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="490" ht="46.25">
@@ -10742,13 +10748,13 @@
         <v>298</v>
       </c>
       <c r="J490" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K490" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L490" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="491" ht="13.8">
@@ -10760,7 +10766,7 @@
         <v>94</v>
       </c>
       <c r="F492" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="494" ht="12.8">
@@ -10770,7 +10776,7 @@
     </row>
     <row r="497" ht="12.8">
       <c r="A497" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="498" ht="79.85">
@@ -10778,13 +10784,13 @@
         <v>301</v>
       </c>
       <c r="J498" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K498" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L498" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="499" ht="79.85">
@@ -10792,13 +10798,13 @@
         <v>302</v>
       </c>
       <c r="J499" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K499" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L499" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="500" ht="12.8">
@@ -10806,7 +10812,7 @@
         <v>92</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" ht="12.8">
@@ -10816,7 +10822,7 @@
     </row>
     <row r="505" ht="12.8">
       <c r="A505" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="506" ht="35.05">
@@ -10824,13 +10830,13 @@
         <v>303</v>
       </c>
       <c r="J506" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K506" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L506" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="507" ht="13.8">
@@ -10852,13 +10858,13 @@
         <v>305</v>
       </c>
       <c r="J508" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K508" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L508" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="509" ht="13.8">
@@ -10866,7 +10872,7 @@
         <v>92</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J509" s="7"/>
     </row>
@@ -10877,7 +10883,7 @@
     </row>
     <row r="512" ht="12.8">
       <c r="A512" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="513" ht="35.05">
@@ -10885,13 +10891,13 @@
         <v>306</v>
       </c>
       <c r="J513" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K513" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L513" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="514" ht="13.8">
@@ -10913,13 +10919,13 @@
         <v>308</v>
       </c>
       <c r="J515" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K515" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L515" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="516" ht="13.8">
@@ -10927,7 +10933,7 @@
         <v>92</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J516" s="7"/>
     </row>
@@ -10938,7 +10944,7 @@
     </row>
     <row r="519" ht="12.8">
       <c r="A519" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="520" ht="79.85">
@@ -10946,13 +10952,13 @@
         <v>309</v>
       </c>
       <c r="J520" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K520" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L520" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="521" ht="79.85">
@@ -10960,13 +10966,13 @@
         <v>310</v>
       </c>
       <c r="J521" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K521" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L521" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="522" ht="13.8">
@@ -10974,7 +10980,7 @@
         <v>92</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J522" s="7"/>
     </row>
@@ -10985,7 +10991,7 @@
     </row>
     <row r="525" ht="12.8">
       <c r="A525" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="526" ht="12.8">
@@ -11001,13 +11007,13 @@
         <v>311</v>
       </c>
       <c r="J527" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K527" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L527" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="528" ht="13.8">
@@ -11019,13 +11025,13 @@
         <v>312</v>
       </c>
       <c r="J529" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K529" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L529" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="530" ht="13.8">
@@ -11046,13 +11052,13 @@
         <v>313</v>
       </c>
       <c r="J532" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K532" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L532" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="533" ht="43.25">
@@ -11060,13 +11066,13 @@
         <v>314</v>
       </c>
       <c r="J533" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K533" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L533" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="534" ht="57.45">
@@ -11074,13 +11080,13 @@
         <v>315</v>
       </c>
       <c r="J534" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K534" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L534" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="535" ht="13.8">
@@ -11088,7 +11094,7 @@
         <v>92</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J535" s="7"/>
     </row>
@@ -11099,7 +11105,7 @@
     </row>
     <row r="538" ht="12.8">
       <c r="A538" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="539" ht="85.05">
@@ -11107,13 +11113,13 @@
         <v>316</v>
       </c>
       <c r="J539" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K539" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L539" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="540" ht="79.85">
@@ -11121,13 +11127,13 @@
         <v>317</v>
       </c>
       <c r="J540" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K540" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L540" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="541" ht="46.25">
@@ -11135,13 +11141,13 @@
         <v>318</v>
       </c>
       <c r="J541" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K541" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L541" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="542" ht="13.8">
@@ -11149,7 +11155,7 @@
         <v>92</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J542" s="7"/>
     </row>
@@ -11160,7 +11166,7 @@
     </row>
     <row r="547" ht="12.8">
       <c r="A547" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F547" s="1"/>
     </row>
@@ -11171,7 +11177,7 @@
       </c>
       <c r="F548" s="4"/>
       <c r="G548" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="549" ht="12.8">
@@ -11193,7 +11199,7 @@
     <row r="551" ht="12.8">
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F551" s="4">
         <v>2</v>
@@ -11203,10 +11209,10 @@
     <row r="552" ht="12.8">
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F552" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G552" s="4"/>
     </row>
@@ -11216,14 +11222,14 @@
         <v>127</v>
       </c>
       <c r="F553" s="16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G553" s="4"/>
     </row>
     <row r="554" ht="12.8">
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F554" s="4">
         <v>2</v>
@@ -11235,7 +11241,7 @@
         <v>94</v>
       </c>
       <c r="F555" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="556" ht="12.8">
@@ -11244,13 +11250,13 @@
         <v>320</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K556" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L556" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="557" ht="13.8">
@@ -11262,13 +11268,13 @@
         <v>321</v>
       </c>
       <c r="J557" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K557" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L557" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="558" ht="13.8">
@@ -11277,13 +11283,13 @@
         <v>322</v>
       </c>
       <c r="J558" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K558" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L558" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="559" ht="13.8">
@@ -11295,13 +11301,13 @@
         <v>323</v>
       </c>
       <c r="J559" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K559" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L559" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="560" ht="13.8">
@@ -11310,13 +11316,13 @@
         <v>324</v>
       </c>
       <c r="J560" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K560" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L560" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="561" s="1" customFormat="1" ht="13.8">
@@ -11325,7 +11331,7 @@
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>151</v>
@@ -11356,13 +11362,13 @@
         <v>325</v>
       </c>
       <c r="J563" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K563" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L563" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="564" ht="13.4" customHeight="1">
@@ -11370,7 +11376,7 @@
         <v>127</v>
       </c>
       <c r="F564" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I564" s="6"/>
       <c r="J564" s="12"/>
@@ -11383,13 +11389,13 @@
         <v>326</v>
       </c>
       <c r="J565" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K565" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L565" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="566" ht="13.8">
@@ -11401,13 +11407,13 @@
         <v>327</v>
       </c>
       <c r="J566" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K566" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L566" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="567" ht="23.85">
@@ -11417,13 +11423,13 @@
         <v>328</v>
       </c>
       <c r="J567" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K567" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L567" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="568" ht="13.8">
@@ -11437,13 +11443,13 @@
         <v>329</v>
       </c>
       <c r="J568" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K568" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L568" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="569" ht="13.8">
@@ -11453,13 +11459,13 @@
         <v>330</v>
       </c>
       <c r="J569" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K569" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L569" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="570" ht="13.8">
@@ -11471,19 +11477,19 @@
     <row r="571" ht="13.8">
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I571" s="6">
         <v>331</v>
       </c>
       <c r="J571" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K571" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L571" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="572" ht="13.8">
@@ -11507,7 +11513,7 @@
     <row r="573" ht="13.8">
       <c r="F573" s="1"/>
       <c r="G573" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I573" s="6">
         <v>333</v>
@@ -11531,19 +11537,19 @@
         <v>334</v>
       </c>
       <c r="J574" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K574" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L574" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="575" ht="13.8">
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I575" s="6">
         <v>335</v>
@@ -11567,19 +11573,19 @@
         <v>336</v>
       </c>
       <c r="J576" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K576" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L576" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="577" ht="13.8">
       <c r="F577" s="1"/>
       <c r="G577" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I577" s="6">
         <v>337</v>
@@ -11603,21 +11609,21 @@
         <v>338</v>
       </c>
       <c r="J578" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K578" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L578" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="579" ht="13.8">
       <c r="E579" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I579" s="6"/>
       <c r="J579" s="12"/>
@@ -11632,13 +11638,13 @@
         <v>339</v>
       </c>
       <c r="J580" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K580" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L580" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="581" ht="13.8">
@@ -11648,13 +11654,13 @@
         <v>340</v>
       </c>
       <c r="J581" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K581" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L581" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="582" ht="13.8">
@@ -11664,13 +11670,13 @@
         <v>341</v>
       </c>
       <c r="J582" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K582" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L582" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="583" ht="13.8">

--- a/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1014">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -3057,6 +3057,311 @@
 My handiwork has its limits, but eventually, It will be nice to have some flashy upgrades.</t>
   </si>
   <si>
+    <t xml:space="preserve">debt7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">あ、ああ…#pcか。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">借金を返済してきてくれたようだな。感謝するよ。
+…浮かない顔をしているだって？ うむ、実は、お前が留守の間にミシリアの高官に会ってきたのだ。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, yes... it's you, #pc. Looks like you've made another payment. I'm grateful.
+...You say I look troubled? Well, the truth is, I had a meeting with a high-ranking official from Mysilia while you were away.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">濡れ衣とはいえ、私も一応ミシリアでは法律上の罪人だからな、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">厳粛な会見になると思って臨んだのだが…</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if it was a false charge, I’m still technically a criminal under Mysilian law, so I expected a solemn and formal audience...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadeOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ミシリア宮廷の一室 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A room in the Mysilian court -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よう、遅かったな、ロイテル。先に始めてたぜ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey, you're late, Loytel. We already got started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bunny1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeeeek!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">久しいな、ロイテル。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been a while, Loytel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホォー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hooo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お…お前たち、ここで何をしている？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W–What are you all doing here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何って、見りゃわかるだろう？パーティーだよ。テーブル一杯のご馳走に、美酒と美女達だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think? It’s a party! A table full of food, fine booze, and beautiful women!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いやぁ～ん、ベーリッヒさまったらぁ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my, Lord Barrich, you're so naughty! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酔っ払い過ぎだぞ、ベーリッヒ。君が羽目を外さないよう見ていろと、妹からきつく言われているんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re drinking way too much, Barrich. Your sister warned me to keep an eye on you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの高官と重大な会談があると聞いていたが、どうやら部屋を間違えたようだ。失礼する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was told there’d be an important meeting with a Mysilian official. But it seems I’ve entered the wrong room. Pardon me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相変わらずお固いねえ。久しぶりの再会なんだ、お前さんもこのかわい子ちゃんの隣に座って楽しんだらどうだ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still so uptight, huh? It’s been ages—why not relax and sit next to this lovely lady?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴ…ゴホン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahem!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カ…カルドーン様…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L–Lord Caldorn...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前たち、ミシリアの重鎮をこんな破廉恥な場所に呼び出して何のつもりだ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You fools! How dare you summon a Mysilian dignitary to such a disgraceful gathering!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…待て待て、ロイテル。お主と話をしたい高官というのは、わしのことだ。
+ベーリッヒの小僧に準備を任せたせいで、こんな趣向になってしまったが、まあ座りたまえ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold on now, Loytel. The official you’re here to meet... is me.
+I left the arrangements to young Barrich here, and this is what I walked into. Well, have a seat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハッ、閣下がそう仰るなら失礼して。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, if Your Excellency insists, I shall comply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うむ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの都を訪れるのも久しかろう。オルヴィナから取り寄せたワインも用意してある。今日はゆっくりくつろぎたまえ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s been some time since you last visited the Mysilian capital. We've prepared wine from Olvina—relax and enjoy yourself tonight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">は、はぁ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうした、お主はオルヴィナのワインに目がなかったはずだろう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s wrong? I thought you couldn’t resist Olvina wine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その…これではまるで、接待を受けているような…私はミシリアの罪人のはずではありませんか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well... this feels more like I’m being entertained. But am I not still a criminal in the eyes of Mysilia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罪人か、ふむ…そうじゃのう…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criminal, hmm… Yes, well...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お主の身に降り掛かった災難には、わしも心底同情しておるのだ。このような悲劇を、いったい誰が予期できたであろう？
+その、あの花はお主のなんといったか。
+幻の…そう、お主の幻の空色チューリッ…ぶふぉっ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I truly sympathize with the misfortune that befell you. Who could have foreseen such a tragedy?
+That... what did you call that flower of yours? The phantom... ah yes, your phantom azure tul—pffft! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">カルドーン様！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord Caldorn!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…す、すまぬ、わしとしたことが。
+もちろん、これは笑い事などではない。この花のせいで、ミシリアとて、お主のような稀有な人材を失いかけたのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M–My apologies, I lost composure for a moment.
+Of course, it’s no laughing matter. Because of that flower, Mysilia almost lost a rare talent like yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カルドーン様…身に余るお言葉です。閣下が私をそこまで認めてくださっていたとは。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your words honor me more than I deserve. I never imagined Your Excellency held me in such esteem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うむ。お主の才能を疑うものなど、この国には一人もおるまい。実際の所、今回の借金騒動で、お主はさらにミシリアで名をあげたのだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeed. There’s not a soul in this nation who doubts your talent.
+In fact, your recent debt incident has only raised your profile within Mysilia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">二千万オレンなどという法外な、あまりに法外な額…それを返済しようというお主の誠実さには頭が下がる思いだ。
+ここにいるベーリッヒのような輩なら、書状など破り捨て、何食わぬ顔で宮廷に顔を出しただろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty million Orens—an absurd, utterly absurd amount... and yet you’re determined to pay it back. Your sincerity is commendable.
+Someone like Barrich here would’ve just torn up the letter and returned to court like nothing happened. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">お主は、一編たりとも疑いをもたなかったのだな、あの書状に。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You didn’t doubt that letter for even a second, did you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ん？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ、そうか。いや、忘れてくれ、ロイテル。
+ミシリアの将来、そしてお主の処遇について、語りたいことは山程ある。だが、今夜はお主のための酒宴だ。
+さあさあ、そこの娘たち、ミシリアの英士にワインを！今宵は無礼講じゃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, never mind. Forget it, Loytel.
+There’s much I’d like to discuss—about Mysilia’s future, and your place in it. But tonight is your banquet.
+Come, ladies! Pour some wine for Mysilia’s finest! Tonight, we cast off all formalities! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ということだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And that’s what happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ま…待て待て。何やら腑に落ちない会談ではあったが、私もオルヴィナ・ワインにうつつを抜かしてばかりいたわけではない。酔いつぶれたカルドーン閣下に支援の約束を取り付けてきたよ。
+ミシリアの兵器庫から、我々の役に立ちそうなものを横流ししてくれるそうだ。
+どんなものが届くかはわからないが、ロイテル・マートに並べておくから、気が向いたら確認してみてくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W–Wait! I admit, it was a rather confusing meeting, but I wasn’t just fawning over Olvina wine the whole time. While Lord Caldorn was passed out drunk, I managed to secure a promise of support.
+He agreed to slip us a few items from the Mysilian armory that might be of use.
+I have no idea what’ll show up, but I’ll stock it at Loytel Mart. Check in when you’ve got the time. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3082,12 +3387,6 @@
     <t xml:space="preserve">demitas?</t>
   </si>
   <si>
-    <t xml:space="preserve">fadeOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setBG</t>
-  </si>
-  <si>
     <t xml:space="preserve">bg3</t>
   </si>
   <si>
@@ -3179,9 +3478,6 @@
   </si>
   <si>
     <t xml:space="preserve">...D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sound</t>
   </si>
   <si>
     <t xml:space="preserve">escape</t>
@@ -4168,7 +4464,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4272,6 +4568,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4321,7 +4624,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -4410,15 +4713,31 @@
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -4628,12 +4947,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N590"/>
+  <dimension ref="A1:N657"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L582" sqref="L582"/>
-      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L649" sqref="L649"/>
+      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -4691,7 +5010,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -4715,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -4739,7 +5058,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -4759,7 +5078,7 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -4794,7 +5113,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -4814,7 +5133,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -4834,7 +5153,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -4861,7 +5180,7 @@
         <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -4883,7 +5202,7 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -4903,7 +5222,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" ht="13.8">
@@ -4923,7 +5242,7 @@
         <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -4943,7 +5262,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" ht="13.8">
@@ -4963,7 +5282,7 @@
         <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" ht="13.8">
@@ -4983,7 +5302,7 @@
         <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -5006,7 +5325,7 @@
         <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -5026,7 +5345,7 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -5058,7 +5377,7 @@
         <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -5086,7 +5405,7 @@
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -5114,7 +5433,7 @@
         <v>62</v>
       </c>
       <c r="L44" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -5142,7 +5461,7 @@
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" ht="75.35">
@@ -5156,7 +5475,7 @@
         <v>66</v>
       </c>
       <c r="L49" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" ht="85.05">
@@ -5170,7 +5489,7 @@
         <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -5198,7 +5517,7 @@
         <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" ht="105.95">
@@ -5212,7 +5531,7 @@
         <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
     </row>
     <row r="56" ht="46.25">
@@ -5226,7 +5545,7 @@
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -5250,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
     </row>
     <row r="61" ht="74.6">
@@ -5264,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -5288,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
     </row>
     <row r="66" ht="35.05">
@@ -5302,7 +5621,7 @@
         <v>83</v>
       </c>
       <c r="L66" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" ht="124.6">
@@ -5316,7 +5635,7 @@
         <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" ht="13.8">
@@ -5330,7 +5649,7 @@
         <v>87</v>
       </c>
       <c r="L68" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" ht="13.8">
@@ -5358,7 +5677,7 @@
         <v>91</v>
       </c>
       <c r="L70" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
     </row>
     <row r="71" ht="13.8">
@@ -5391,7 +5710,7 @@
         <v>97</v>
       </c>
       <c r="L74" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -5420,7 +5739,7 @@
         <v>102</v>
       </c>
       <c r="L80" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -5444,7 +5763,7 @@
         <v>105</v>
       </c>
       <c r="L89" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" ht="13.8">
@@ -5458,7 +5777,7 @@
         <v>107</v>
       </c>
       <c r="L90" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" ht="85.05">
@@ -5472,7 +5791,7 @@
         <v>109</v>
       </c>
       <c r="L91" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -5509,7 +5828,7 @@
         <v>113</v>
       </c>
       <c r="L97" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
     </row>
     <row r="98" ht="95.5">
@@ -5523,7 +5842,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -5605,7 +5924,7 @@
         <v>122</v>
       </c>
       <c r="L108" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
     </row>
     <row r="109" ht="23.85">
@@ -5622,7 +5941,7 @@
         <v>124</v>
       </c>
       <c r="L109" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110" ht="13.8">
@@ -5636,7 +5955,7 @@
         <v>126</v>
       </c>
       <c r="L110" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -5658,7 +5977,7 @@
         <v>129</v>
       </c>
       <c r="L112" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
     </row>
     <row r="113" ht="13.8">
@@ -5686,7 +6005,7 @@
         <v>131</v>
       </c>
       <c r="L114" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
     </row>
     <row r="115" ht="13.8">
@@ -5703,7 +6022,7 @@
         <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116" ht="13.8">
@@ -5720,7 +6039,7 @@
         <v>135</v>
       </c>
       <c r="L116" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117" ht="13.8">
@@ -5734,7 +6053,7 @@
         <v>137</v>
       </c>
       <c r="L117" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" ht="57.45">
@@ -5748,7 +6067,7 @@
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
     </row>
     <row r="119" ht="35.05">
@@ -5762,7 +6081,7 @@
         <v>141</v>
       </c>
       <c r="L119" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
     </row>
     <row r="120" ht="23.85">
@@ -5779,7 +6098,7 @@
         <v>143</v>
       </c>
       <c r="L120" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
     </row>
     <row r="121" ht="13.8">
@@ -5793,7 +6112,7 @@
         <v>145</v>
       </c>
       <c r="L121" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
     </row>
     <row r="122" ht="13.8">
@@ -5827,7 +6146,7 @@
         <v>147</v>
       </c>
       <c r="L123" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" ht="13.8">
@@ -5844,7 +6163,7 @@
         <v>149</v>
       </c>
       <c r="L124" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" ht="13.8">
@@ -5901,7 +6220,7 @@
         <v>156</v>
       </c>
       <c r="L134" t="s">
-        <v>710</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" ht="57.45">
@@ -5915,7 +6234,7 @@
         <v>158</v>
       </c>
       <c r="L135" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
     </row>
     <row r="136" ht="13.8">
@@ -5932,7 +6251,7 @@
         <v>160</v>
       </c>
       <c r="L136" t="s">
-        <v>712</v>
+        <v>792</v>
       </c>
     </row>
     <row r="137" ht="35.05">
@@ -5946,7 +6265,7 @@
         <v>162</v>
       </c>
       <c r="L137" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
     </row>
     <row r="138" ht="35.05">
@@ -5963,7 +6282,7 @@
         <v>164</v>
       </c>
       <c r="L138" t="s">
-        <v>714</v>
+        <v>794</v>
       </c>
     </row>
     <row r="139" ht="13.8">
@@ -5994,7 +6313,7 @@
         <v>166</v>
       </c>
       <c r="L140" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
     </row>
     <row r="141" ht="13.8">
@@ -6008,7 +6327,7 @@
         <v>168</v>
       </c>
       <c r="L141" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
     </row>
     <row r="142" ht="68.65">
@@ -6022,7 +6341,7 @@
         <v>170</v>
       </c>
       <c r="L142" t="s">
-        <v>717</v>
+        <v>797</v>
       </c>
     </row>
     <row r="143" ht="23.85">
@@ -6039,7 +6358,7 @@
         <v>172</v>
       </c>
       <c r="L143" t="s">
-        <v>718</v>
+        <v>798</v>
       </c>
     </row>
     <row r="144" ht="13.8">
@@ -6053,7 +6372,7 @@
         <v>137</v>
       </c>
       <c r="L144" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
     </row>
     <row r="145" ht="68.65">
@@ -6070,7 +6389,7 @@
         <v>174</v>
       </c>
       <c r="L145" t="s">
-        <v>719</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" ht="13.8">
@@ -6084,7 +6403,7 @@
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>720</v>
+        <v>800</v>
       </c>
     </row>
     <row r="147" ht="13.8">
@@ -6101,7 +6420,7 @@
         <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>721</v>
+        <v>801</v>
       </c>
     </row>
     <row r="148" ht="23.85">
@@ -6115,7 +6434,7 @@
         <v>180</v>
       </c>
       <c r="L148" t="s">
-        <v>722</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -6179,7 +6498,7 @@
         <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>723</v>
+        <v>803</v>
       </c>
     </row>
     <row r="159" ht="23.85">
@@ -6193,7 +6512,7 @@
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>724</v>
+        <v>804</v>
       </c>
     </row>
     <row r="160" ht="23.85">
@@ -6210,7 +6529,7 @@
         <v>190</v>
       </c>
       <c r="L160" t="s">
-        <v>725</v>
+        <v>805</v>
       </c>
     </row>
     <row r="161" ht="68.65">
@@ -6224,7 +6543,7 @@
         <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
     </row>
     <row r="162" ht="91">
@@ -6238,7 +6557,7 @@
         <v>194</v>
       </c>
       <c r="L162" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
     <row r="163" ht="46.25">
@@ -6252,7 +6571,7 @@
         <v>196</v>
       </c>
       <c r="L163" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
     </row>
     <row r="164" ht="13.8">
@@ -6283,7 +6602,7 @@
         <v>199</v>
       </c>
       <c r="L165" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" ht="57.45">
@@ -6300,7 +6619,7 @@
         <v>201</v>
       </c>
       <c r="L166" t="s">
-        <v>730</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" ht="13.8">
@@ -6334,7 +6653,7 @@
         <v>203</v>
       </c>
       <c r="L168" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
     </row>
     <row r="169" ht="23.85">
@@ -6348,7 +6667,7 @@
         <v>205</v>
       </c>
       <c r="L169" t="s">
-        <v>732</v>
+        <v>812</v>
       </c>
     </row>
     <row r="170" ht="35.05">
@@ -6365,7 +6684,7 @@
         <v>207</v>
       </c>
       <c r="L170" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
     </row>
     <row r="171" ht="35.05">
@@ -6379,7 +6698,7 @@
         <v>209</v>
       </c>
       <c r="L171" t="s">
-        <v>734</v>
+        <v>814</v>
       </c>
     </row>
     <row r="172" ht="56.7">
@@ -6393,7 +6712,7 @@
         <v>211</v>
       </c>
       <c r="L172" t="s">
-        <v>735</v>
+        <v>815</v>
       </c>
     </row>
     <row r="173" ht="13.8">
@@ -6454,7 +6773,7 @@
         <v>215</v>
       </c>
       <c r="L182" t="s">
-        <v>736</v>
+        <v>816</v>
       </c>
     </row>
     <row r="183" ht="13.8">
@@ -6471,7 +6790,7 @@
         <v>217</v>
       </c>
       <c r="L183" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
     </row>
     <row r="184" ht="24.6">
@@ -6485,7 +6804,7 @@
         <v>219</v>
       </c>
       <c r="L184" t="s">
-        <v>738</v>
+        <v>818</v>
       </c>
     </row>
     <row r="185" ht="13.8">
@@ -6533,7 +6852,7 @@
         <v>221</v>
       </c>
       <c r="L187" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
     </row>
     <row r="188" ht="35.05">
@@ -6547,7 +6866,7 @@
         <v>223</v>
       </c>
       <c r="L188" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
     </row>
     <row r="189" ht="13.8">
@@ -6595,7 +6914,7 @@
         <v>225</v>
       </c>
       <c r="L191" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
     </row>
     <row r="192" ht="35.05">
@@ -6609,7 +6928,7 @@
         <v>227</v>
       </c>
       <c r="L192" t="s">
-        <v>742</v>
+        <v>822</v>
       </c>
     </row>
     <row r="193" ht="13.8">
@@ -6654,7 +6973,7 @@
         <v>229</v>
       </c>
       <c r="L195" t="s">
-        <v>743</v>
+        <v>823</v>
       </c>
     </row>
     <row r="196" ht="13.8">
@@ -6671,7 +6990,7 @@
         <v>231</v>
       </c>
       <c r="L196" t="s">
-        <v>744</v>
+        <v>824</v>
       </c>
     </row>
     <row r="197" ht="23.85">
@@ -6685,7 +7004,7 @@
         <v>233</v>
       </c>
       <c r="L197" t="s">
-        <v>745</v>
+        <v>825</v>
       </c>
     </row>
     <row r="198" ht="13.8">
@@ -6713,7 +7032,7 @@
         <v>235</v>
       </c>
       <c r="L199" t="s">
-        <v>746</v>
+        <v>826</v>
       </c>
     </row>
     <row r="200" ht="13.8">
@@ -6744,7 +7063,7 @@
         <v>237</v>
       </c>
       <c r="L201" t="s">
-        <v>747</v>
+        <v>827</v>
       </c>
     </row>
     <row r="202" ht="13.8">
@@ -6761,7 +7080,7 @@
         <v>239</v>
       </c>
       <c r="L202" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
     </row>
     <row r="203" ht="13.8">
@@ -6775,7 +7094,7 @@
         <v>241</v>
       </c>
       <c r="L203" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" ht="13.8">
@@ -6803,7 +7122,7 @@
         <v>243</v>
       </c>
       <c r="L205" t="s">
-        <v>750</v>
+        <v>830</v>
       </c>
     </row>
     <row r="206" ht="13.8">
@@ -6865,7 +7184,7 @@
         <v>246</v>
       </c>
       <c r="L216" t="s">
-        <v>751</v>
+        <v>831</v>
       </c>
     </row>
     <row r="217" ht="13.8">
@@ -6882,7 +7201,7 @@
         <v>248</v>
       </c>
       <c r="L217" t="s">
-        <v>752</v>
+        <v>832</v>
       </c>
     </row>
     <row r="218" ht="68.65">
@@ -6896,7 +7215,7 @@
         <v>250</v>
       </c>
       <c r="L218" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
     </row>
     <row r="219" ht="64.15">
@@ -6913,7 +7232,7 @@
         <v>252</v>
       </c>
       <c r="L219" t="s">
-        <v>754</v>
+        <v>834</v>
       </c>
     </row>
     <row r="220" ht="13.8">
@@ -6927,7 +7246,7 @@
         <v>254</v>
       </c>
       <c r="L220" t="s">
-        <v>755</v>
+        <v>835</v>
       </c>
     </row>
     <row r="221" ht="13.8">
@@ -6961,7 +7280,7 @@
         <v>256</v>
       </c>
       <c r="L222" t="s">
-        <v>756</v>
+        <v>836</v>
       </c>
     </row>
     <row r="223" ht="13.8">
@@ -6989,7 +7308,7 @@
         <v>258</v>
       </c>
       <c r="L224" t="s">
-        <v>757</v>
+        <v>837</v>
       </c>
     </row>
     <row r="225" ht="46.25">
@@ -7006,7 +7325,7 @@
         <v>260</v>
       </c>
       <c r="L225" t="s">
-        <v>758</v>
+        <v>838</v>
       </c>
     </row>
     <row r="226" ht="13.8">
@@ -7023,7 +7342,7 @@
         <v>262</v>
       </c>
       <c r="L226" t="s">
-        <v>759</v>
+        <v>839</v>
       </c>
     </row>
     <row r="227" ht="13.8">
@@ -7037,7 +7356,7 @@
         <v>264</v>
       </c>
       <c r="L227" t="s">
-        <v>760</v>
+        <v>840</v>
       </c>
     </row>
     <row r="228" ht="13.4">
@@ -7051,7 +7370,7 @@
         <v>266</v>
       </c>
       <c r="L228" t="s">
-        <v>761</v>
+        <v>841</v>
       </c>
     </row>
     <row r="229" ht="35.05">
@@ -7065,7 +7384,7 @@
         <v>268</v>
       </c>
       <c r="L229" t="s">
-        <v>762</v>
+        <v>842</v>
       </c>
     </row>
     <row r="230" ht="13.8">
@@ -7103,7 +7422,7 @@
         <v>272</v>
       </c>
       <c r="L239" t="s">
-        <v>763</v>
+        <v>843</v>
       </c>
     </row>
     <row r="240" ht="57.45">
@@ -7117,7 +7436,7 @@
         <v>274</v>
       </c>
       <c r="L240" t="s">
-        <v>764</v>
+        <v>844</v>
       </c>
     </row>
     <row r="241" ht="12.8">
@@ -7147,7 +7466,7 @@
         <v>277</v>
       </c>
       <c r="L244" t="s">
-        <v>765</v>
+        <v>845</v>
       </c>
     </row>
     <row r="245" ht="64.15">
@@ -7161,7 +7480,7 @@
         <v>279</v>
       </c>
       <c r="L245" t="s">
-        <v>766</v>
+        <v>846</v>
       </c>
     </row>
     <row r="246" ht="13.8">
@@ -7190,7 +7509,7 @@
         <v>281</v>
       </c>
       <c r="L247" t="s">
-        <v>767</v>
+        <v>847</v>
       </c>
     </row>
     <row r="248" ht="13.8">
@@ -7221,7 +7540,7 @@
         <v>283</v>
       </c>
       <c r="L249" t="s">
-        <v>768</v>
+        <v>848</v>
       </c>
     </row>
     <row r="250" ht="35.05">
@@ -7235,7 +7554,7 @@
         <v>285</v>
       </c>
       <c r="L250" t="s">
-        <v>769</v>
+        <v>849</v>
       </c>
     </row>
     <row r="251" ht="91">
@@ -7249,7 +7568,7 @@
         <v>287</v>
       </c>
       <c r="L251" t="s">
-        <v>770</v>
+        <v>850</v>
       </c>
     </row>
     <row r="252" ht="64.15">
@@ -7263,7 +7582,7 @@
         <v>289</v>
       </c>
       <c r="L252" t="s">
-        <v>771</v>
+        <v>851</v>
       </c>
     </row>
     <row r="253" ht="13.8">
@@ -7297,7 +7616,7 @@
         <v>292</v>
       </c>
       <c r="L257" t="s">
-        <v>772</v>
+        <v>852</v>
       </c>
     </row>
     <row r="258" ht="64.15">
@@ -7311,7 +7630,7 @@
         <v>294</v>
       </c>
       <c r="L258" t="s">
-        <v>773</v>
+        <v>853</v>
       </c>
     </row>
     <row r="259" ht="13.8">
@@ -7334,7 +7653,7 @@
         <v>297</v>
       </c>
       <c r="L260" t="s">
-        <v>774</v>
+        <v>854</v>
       </c>
     </row>
     <row r="261" ht="12.8">
@@ -7369,7 +7688,7 @@
         <v>300</v>
       </c>
       <c r="L266" t="s">
-        <v>775</v>
+        <v>855</v>
       </c>
     </row>
     <row r="267" ht="23.85">
@@ -7383,7 +7702,7 @@
         <v>302</v>
       </c>
       <c r="L267" t="s">
-        <v>776</v>
+        <v>856</v>
       </c>
     </row>
     <row r="268" ht="35.05">
@@ -7397,7 +7716,7 @@
         <v>304</v>
       </c>
       <c r="L268" t="s">
-        <v>777</v>
+        <v>857</v>
       </c>
     </row>
     <row r="269" ht="35.05">
@@ -7411,7 +7730,7 @@
         <v>306</v>
       </c>
       <c r="L269" t="s">
-        <v>778</v>
+        <v>858</v>
       </c>
     </row>
     <row r="270" ht="68.65">
@@ -7425,7 +7744,7 @@
         <v>308</v>
       </c>
       <c r="L270" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
     </row>
     <row r="271" ht="12.8">
@@ -7479,7 +7798,7 @@
         <v>313</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
     </row>
     <row r="280" ht="12.8">
@@ -7496,7 +7815,7 @@
         <v>315</v>
       </c>
       <c r="L280" t="s">
-        <v>781</v>
+        <v>861</v>
       </c>
     </row>
     <row r="281" ht="12.8">
@@ -7510,7 +7829,7 @@
         <v>317</v>
       </c>
       <c r="L281" t="s">
-        <v>782</v>
+        <v>862</v>
       </c>
     </row>
     <row r="282" ht="12.8">
@@ -7541,7 +7860,7 @@
         <v>319</v>
       </c>
       <c r="L283" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
     </row>
     <row r="284" ht="43.25">
@@ -7555,7 +7874,7 @@
         <v>321</v>
       </c>
       <c r="L284" t="s">
-        <v>784</v>
+        <v>864</v>
       </c>
     </row>
     <row r="285" ht="68.65">
@@ -7569,7 +7888,7 @@
         <v>323</v>
       </c>
       <c r="L285" t="s">
-        <v>785</v>
+        <v>865</v>
       </c>
     </row>
     <row r="286" ht="23.85">
@@ -7583,7 +7902,7 @@
         <v>325</v>
       </c>
       <c r="L286" t="s">
-        <v>786</v>
+        <v>866</v>
       </c>
     </row>
     <row r="287" ht="12.8">
@@ -7620,7 +7939,7 @@
         <v>331</v>
       </c>
       <c r="L294" t="s">
-        <v>787</v>
+        <v>867</v>
       </c>
     </row>
     <row r="295" ht="12.8">
@@ -7651,7 +7970,7 @@
         <v>333</v>
       </c>
       <c r="L296" t="s">
-        <v>788</v>
+        <v>868</v>
       </c>
     </row>
     <row r="297" ht="95.5">
@@ -7668,7 +7987,7 @@
         <v>335</v>
       </c>
       <c r="L297" t="s">
-        <v>789</v>
+        <v>869</v>
       </c>
     </row>
     <row r="298" ht="13.8">
@@ -7699,7 +8018,7 @@
         <v>337</v>
       </c>
       <c r="L299" t="s">
-        <v>790</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300" ht="85.8">
@@ -7716,7 +8035,7 @@
         <v>339</v>
       </c>
       <c r="L300" t="s">
-        <v>791</v>
+        <v>871</v>
       </c>
     </row>
     <row r="301" ht="13.8">
@@ -7730,7 +8049,7 @@
         <v>341</v>
       </c>
       <c r="L301" t="s">
-        <v>792</v>
+        <v>872</v>
       </c>
     </row>
     <row r="302" ht="13.8">
@@ -7775,7 +8094,7 @@
         <v>343</v>
       </c>
       <c r="L304" t="s">
-        <v>793</v>
+        <v>873</v>
       </c>
     </row>
     <row r="305" ht="13.8">
@@ -7792,7 +8111,7 @@
         <v>345</v>
       </c>
       <c r="L305" t="s">
-        <v>794</v>
+        <v>874</v>
       </c>
     </row>
     <row r="306" ht="46.25">
@@ -7806,7 +8125,7 @@
         <v>347</v>
       </c>
       <c r="L306" t="s">
-        <v>795</v>
+        <v>875</v>
       </c>
     </row>
     <row r="307" ht="13.8">
@@ -7823,7 +8142,7 @@
         <v>349</v>
       </c>
       <c r="L307" t="s">
-        <v>796</v>
+        <v>876</v>
       </c>
     </row>
     <row r="308" ht="35.05">
@@ -7837,7 +8156,7 @@
         <v>351</v>
       </c>
       <c r="L308" t="s">
-        <v>797</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" ht="13.8">
@@ -7854,7 +8173,7 @@
         <v>353</v>
       </c>
       <c r="L309" t="s">
-        <v>798</v>
+        <v>878</v>
       </c>
     </row>
     <row r="310" ht="13.8">
@@ -7882,7 +8201,7 @@
         <v>355</v>
       </c>
       <c r="L311" t="s">
-        <v>799</v>
+        <v>879</v>
       </c>
     </row>
     <row r="312" ht="64.15">
@@ -7896,7 +8215,7 @@
         <v>357</v>
       </c>
       <c r="L312" t="s">
-        <v>800</v>
+        <v>880</v>
       </c>
     </row>
     <row r="313" ht="13.8">
@@ -7923,7 +8242,7 @@
         <v>360</v>
       </c>
       <c r="L318" t="s">
-        <v>801</v>
+        <v>881</v>
       </c>
     </row>
     <row r="319" ht="116.4">
@@ -7937,7 +8256,7 @@
         <v>362</v>
       </c>
       <c r="L319" t="s">
-        <v>802</v>
+        <v>882</v>
       </c>
     </row>
     <row r="320" ht="13.8">
@@ -7961,7 +8280,7 @@
         <v>366</v>
       </c>
       <c r="L321" t="s">
-        <v>803</v>
+        <v>883</v>
       </c>
     </row>
     <row r="322" ht="57.45">
@@ -7975,7 +8294,7 @@
         <v>368</v>
       </c>
       <c r="L322" t="s">
-        <v>804</v>
+        <v>884</v>
       </c>
     </row>
     <row r="323" ht="13.8">
@@ -8014,7 +8333,7 @@
         <v>371</v>
       </c>
       <c r="L330" t="s">
-        <v>805</v>
+        <v>885</v>
       </c>
     </row>
     <row r="331" ht="13.8">
@@ -8028,7 +8347,7 @@
         <v>373</v>
       </c>
       <c r="L331" t="s">
-        <v>806</v>
+        <v>886</v>
       </c>
     </row>
     <row r="332" ht="85.05">
@@ -8045,7 +8364,7 @@
         <v>375</v>
       </c>
       <c r="L332" t="s">
-        <v>807</v>
+        <v>887</v>
       </c>
     </row>
     <row r="333" ht="57.45">
@@ -8059,7 +8378,7 @@
         <v>377</v>
       </c>
       <c r="L333" t="s">
-        <v>808</v>
+        <v>888</v>
       </c>
     </row>
     <row r="334" ht="12.8">
@@ -8084,7 +8403,7 @@
         <v>379</v>
       </c>
       <c r="L336" t="s">
-        <v>809</v>
+        <v>889</v>
       </c>
     </row>
     <row r="338" ht="12.8">
@@ -8129,7 +8448,7 @@
         <v>385</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>810</v>
+        <v>890</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="12.8">
@@ -8222,7 +8541,7 @@
         <v>387</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>811</v>
+        <v>891</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="13.8">
@@ -8246,7 +8565,7 @@
         <v>389</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>812</v>
+        <v>892</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="57.45">
@@ -8270,7 +8589,7 @@
         <v>391</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>813</v>
+        <v>893</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="12.8">
@@ -8294,7 +8613,7 @@
         <v>393</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>814</v>
+        <v>894</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="35.05">
@@ -8318,7 +8637,7 @@
         <v>395</v>
       </c>
       <c r="L354" s="4" t="s">
-        <v>815</v>
+        <v>895</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="13.8">
@@ -8366,7 +8685,7 @@
         <v>397</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>816</v>
+        <v>896</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="13.8">
@@ -8390,7 +8709,7 @@
         <v>399</v>
       </c>
       <c r="L357" s="4" t="s">
-        <v>817</v>
+        <v>897</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22.35">
@@ -8438,7 +8757,7 @@
         <v>401</v>
       </c>
       <c r="L359" s="4" t="s">
-        <v>818</v>
+        <v>898</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="23.85">
@@ -8462,7 +8781,7 @@
         <v>403</v>
       </c>
       <c r="L360" s="4" t="s">
-        <v>819</v>
+        <v>899</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="23.85">
@@ -8486,7 +8805,7 @@
         <v>405</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>820</v>
+        <v>900</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="13.8">
@@ -8578,7 +8897,7 @@
         <v>410</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>821</v>
+        <v>901</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="13.8">
@@ -8650,7 +8969,7 @@
         <v>412</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>822</v>
+        <v>902</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="12.8">
@@ -8674,7 +8993,7 @@
         <v>414</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>823</v>
+        <v>903</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="12.8">
@@ -8698,7 +9017,7 @@
         <v>416</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>824</v>
+        <v>904</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="23.85">
@@ -8722,7 +9041,7 @@
         <v>418</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>825</v>
+        <v>905</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="23.85">
@@ -8746,7 +9065,7 @@
         <v>420</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>826</v>
+        <v>906</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="12.8">
@@ -8787,7 +9106,7 @@
         <v>422</v>
       </c>
       <c r="L375" s="4" t="s">
-        <v>827</v>
+        <v>907</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="12.8">
@@ -8836,7 +9155,7 @@
         <v>424</v>
       </c>
       <c r="L378" s="4" t="s">
-        <v>828</v>
+        <v>908</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="12.8">
@@ -8860,7 +9179,7 @@
         <v>426</v>
       </c>
       <c r="L379" s="4" t="s">
-        <v>829</v>
+        <v>909</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="12.8">
@@ -8908,7 +9227,7 @@
         <v>428</v>
       </c>
       <c r="L381" s="4" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="23.85">
@@ -8932,7 +9251,7 @@
         <v>430</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>831</v>
+        <v>911</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="12.8">
@@ -8956,7 +9275,7 @@
         <v>432</v>
       </c>
       <c r="L383" s="4" t="s">
-        <v>832</v>
+        <v>912</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="35.05">
@@ -8980,7 +9299,7 @@
         <v>434</v>
       </c>
       <c r="L384" s="4" t="s">
-        <v>833</v>
+        <v>913</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="13.8">
@@ -9004,7 +9323,7 @@
         <v>436</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>834</v>
+        <v>914</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="13.8">
@@ -9028,7 +9347,7 @@
         <v>438</v>
       </c>
       <c r="L386" s="4" t="s">
-        <v>835</v>
+        <v>915</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="13.8">
@@ -9052,7 +9371,7 @@
         <v>440</v>
       </c>
       <c r="L387" s="4" t="s">
-        <v>836</v>
+        <v>916</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="13.8">
@@ -9076,7 +9395,7 @@
         <v>442</v>
       </c>
       <c r="L388" s="4" t="s">
-        <v>837</v>
+        <v>917</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="13.8">
@@ -9100,7 +9419,7 @@
         <v>444</v>
       </c>
       <c r="L389" s="4" t="s">
-        <v>838</v>
+        <v>918</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="13.8">
@@ -9124,7 +9443,7 @@
         <v>446</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>839</v>
+        <v>919</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="13.8">
@@ -9148,7 +9467,7 @@
         <v>448</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>840</v>
+        <v>920</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="23.85">
@@ -9172,7 +9491,7 @@
         <v>450</v>
       </c>
       <c r="L392" s="4" t="s">
-        <v>841</v>
+        <v>921</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="13.8">
@@ -9196,7 +9515,7 @@
         <v>452</v>
       </c>
       <c r="L393" s="4" t="s">
-        <v>842</v>
+        <v>922</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="13.8">
@@ -9233,7 +9552,7 @@
         <v>454</v>
       </c>
       <c r="L395" s="4" t="s">
-        <v>843</v>
+        <v>923</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="13.8">
@@ -9257,7 +9576,7 @@
         <v>456</v>
       </c>
       <c r="L396" s="4" t="s">
-        <v>844</v>
+        <v>924</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="13.8">
@@ -9294,7 +9613,7 @@
         <v>458</v>
       </c>
       <c r="L398" s="4" t="s">
-        <v>843</v>
+        <v>923</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="13.8">
@@ -9318,7 +9637,7 @@
         <v>460</v>
       </c>
       <c r="L399" s="4" t="s">
-        <v>845</v>
+        <v>925</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="13.8">
@@ -9379,7 +9698,7 @@
         <v>462</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>846</v>
+        <v>926</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="13.8">
@@ -9427,7 +9746,7 @@
         <v>464</v>
       </c>
       <c r="L404" s="4" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="13.8">
@@ -9451,7 +9770,7 @@
         <v>466</v>
       </c>
       <c r="L405" s="4" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="23.85">
@@ -9475,7 +9794,7 @@
         <v>468</v>
       </c>
       <c r="L406" s="4" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="23.85">
@@ -9499,7 +9818,7 @@
         <v>470</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>850</v>
+        <v>930</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="35.05">
@@ -9523,7 +9842,7 @@
         <v>472</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="13.8">
@@ -9547,7 +9866,7 @@
         <v>474</v>
       </c>
       <c r="L409" s="4" t="s">
-        <v>852</v>
+        <v>932</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="13.8">
@@ -9571,7 +9890,7 @@
         <v>476</v>
       </c>
       <c r="L410" s="4" t="s">
-        <v>853</v>
+        <v>933</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="13.8">
@@ -9619,7 +9938,7 @@
         <v>478</v>
       </c>
       <c r="L412" s="4" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="23.85">
@@ -9643,7 +9962,7 @@
         <v>480</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>855</v>
+        <v>935</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="13.8">
@@ -9667,7 +9986,7 @@
         <v>482</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>856</v>
+        <v>936</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="57.45">
@@ -9691,7 +10010,7 @@
         <v>484</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>857</v>
+        <v>937</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="13.8">
@@ -9715,7 +10034,7 @@
         <v>486</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>858</v>
+        <v>938</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="13.8">
@@ -9739,7 +10058,7 @@
         <v>458</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>843</v>
+        <v>923</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="13.8">
@@ -9787,7 +10106,7 @@
         <v>488</v>
       </c>
       <c r="L419" s="4" t="s">
-        <v>859</v>
+        <v>939</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="13.8">
@@ -9835,7 +10154,7 @@
         <v>490</v>
       </c>
       <c r="L421" s="4" t="s">
-        <v>860</v>
+        <v>940</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="13.8">
@@ -9859,7 +10178,7 @@
         <v>492</v>
       </c>
       <c r="L422" s="4" t="s">
-        <v>861</v>
+        <v>941</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="12.8">
@@ -9939,7 +10258,7 @@
         <v>496</v>
       </c>
       <c r="L430" s="4" t="s">
-        <v>862</v>
+        <v>942</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="13.8">
@@ -9963,7 +10282,7 @@
         <v>498</v>
       </c>
       <c r="L431" s="4" t="s">
-        <v>863</v>
+        <v>943</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="25.35">
@@ -9985,7 +10304,7 @@
         <v>500</v>
       </c>
       <c r="L432" s="4" t="s">
-        <v>864</v>
+        <v>944</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="102.2">
@@ -10009,7 +10328,7 @@
         <v>502</v>
       </c>
       <c r="L433" s="4" t="s">
-        <v>865</v>
+        <v>945</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="13.8">
@@ -10033,7 +10352,7 @@
         <v>504</v>
       </c>
       <c r="L434" s="4" t="s">
-        <v>866</v>
+        <v>946</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="13.8">
@@ -10057,7 +10376,7 @@
         <v>505</v>
       </c>
       <c r="L435" s="4" t="s">
-        <v>843</v>
+        <v>923</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="23.85">
@@ -10081,7 +10400,7 @@
         <v>507</v>
       </c>
       <c r="L436" s="4" t="s">
-        <v>867</v>
+        <v>947</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="57.45">
@@ -10105,7 +10424,7 @@
         <v>509</v>
       </c>
       <c r="L437" s="4" t="s">
-        <v>868</v>
+        <v>948</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="46.25">
@@ -10127,7 +10446,7 @@
         <v>511</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>869</v>
+        <v>949</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="13.8">
@@ -10151,7 +10470,7 @@
         <v>513</v>
       </c>
       <c r="L439" s="4" t="s">
-        <v>870</v>
+        <v>950</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="23.85">
@@ -10173,7 +10492,7 @@
         <v>515</v>
       </c>
       <c r="L440" s="4" t="s">
-        <v>871</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" ht="12.8">
@@ -10210,7 +10529,7 @@
         <v>215</v>
       </c>
       <c r="L446" t="s">
-        <v>872</v>
+        <v>952</v>
       </c>
     </row>
     <row r="447" ht="23.85">
@@ -10225,7 +10544,7 @@
         <v>217</v>
       </c>
       <c r="L447" t="s">
-        <v>873</v>
+        <v>953</v>
       </c>
     </row>
     <row r="448" ht="13.8">
@@ -10238,7 +10557,7 @@
       </c>
       <c r="K448" s="14"/>
       <c r="L448" t="s">
-        <v>874</v>
+        <v>954</v>
       </c>
     </row>
     <row r="449" ht="35.05">
@@ -10251,7 +10570,7 @@
       </c>
       <c r="K449" s="14"/>
       <c r="L449" t="s">
-        <v>875</v>
+        <v>955</v>
       </c>
     </row>
     <row r="450" ht="13.8">
@@ -10264,7 +10583,7 @@
       </c>
       <c r="K450" s="14"/>
       <c r="L450" t="s">
-        <v>876</v>
+        <v>956</v>
       </c>
     </row>
     <row r="451" ht="12.8">
@@ -10301,7 +10620,7 @@
         <v>525</v>
       </c>
       <c r="L460" t="s">
-        <v>877</v>
+        <v>957</v>
       </c>
     </row>
     <row r="461" ht="46.25">
@@ -10315,7 +10634,7 @@
         <v>527</v>
       </c>
       <c r="L461" t="s">
-        <v>878</v>
+        <v>958</v>
       </c>
     </row>
     <row r="462" ht="23.85">
@@ -10332,7 +10651,7 @@
         <v>529</v>
       </c>
       <c r="L462" t="s">
-        <v>879</v>
+        <v>959</v>
       </c>
     </row>
     <row r="463" ht="35.05">
@@ -10346,7 +10665,7 @@
         <v>531</v>
       </c>
       <c r="L463" t="s">
-        <v>880</v>
+        <v>960</v>
       </c>
     </row>
     <row r="464" ht="35.05">
@@ -10360,7 +10679,7 @@
         <v>533</v>
       </c>
       <c r="L464" t="s">
-        <v>881</v>
+        <v>961</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -10379,7 +10698,7 @@
         <v>535</v>
       </c>
       <c r="L465" t="s">
-        <v>882</v>
+        <v>962</v>
       </c>
     </row>
     <row r="466" ht="37.3">
@@ -10393,7 +10712,7 @@
         <v>537</v>
       </c>
       <c r="L466" t="s">
-        <v>883</v>
+        <v>963</v>
       </c>
     </row>
     <row r="467" ht="13.8">
@@ -10407,7 +10726,7 @@
         <v>539</v>
       </c>
       <c r="L467" t="s">
-        <v>884</v>
+        <v>964</v>
       </c>
     </row>
     <row r="468" ht="13.8">
@@ -10421,7 +10740,7 @@
         <v>541</v>
       </c>
       <c r="L468" t="s">
-        <v>885</v>
+        <v>965</v>
       </c>
     </row>
     <row r="469" ht="13.8">
@@ -10465,7 +10784,7 @@
         <v>543</v>
       </c>
       <c r="L471" t="s">
-        <v>886</v>
+        <v>966</v>
       </c>
     </row>
     <row r="472" ht="35.05">
@@ -10482,7 +10801,7 @@
         <v>545</v>
       </c>
       <c r="L472" t="s">
-        <v>887</v>
+        <v>967</v>
       </c>
     </row>
     <row r="473" ht="13.8">
@@ -10496,7 +10815,7 @@
         <v>547</v>
       </c>
       <c r="L473" t="s">
-        <v>888</v>
+        <v>968</v>
       </c>
     </row>
     <row r="474" ht="13.8">
@@ -10523,7 +10842,7 @@
         <v>549</v>
       </c>
       <c r="L475" t="s">
-        <v>889</v>
+        <v>969</v>
       </c>
     </row>
     <row r="476" ht="13.8">
@@ -10540,7 +10859,7 @@
         <v>551</v>
       </c>
       <c r="L476" t="s">
-        <v>890</v>
+        <v>970</v>
       </c>
     </row>
     <row r="477" ht="79.85">
@@ -10557,7 +10876,7 @@
         <v>553</v>
       </c>
       <c r="L477" t="s">
-        <v>891</v>
+        <v>971</v>
       </c>
     </row>
     <row r="478" ht="102.2">
@@ -10574,7 +10893,7 @@
         <v>555</v>
       </c>
       <c r="L478" t="s">
-        <v>892</v>
+        <v>972</v>
       </c>
     </row>
     <row r="479" ht="13.8">
@@ -10605,7 +10924,7 @@
         <v>557</v>
       </c>
       <c r="L480" t="s">
-        <v>893</v>
+        <v>973</v>
       </c>
     </row>
     <row r="481" ht="23.85">
@@ -10622,7 +10941,7 @@
         <v>559</v>
       </c>
       <c r="L481" t="s">
-        <v>894</v>
+        <v>974</v>
       </c>
     </row>
     <row r="482" ht="23.85">
@@ -10639,7 +10958,7 @@
         <v>561</v>
       </c>
       <c r="L482" t="s">
-        <v>895</v>
+        <v>975</v>
       </c>
     </row>
     <row r="483" ht="13.8">
@@ -10656,7 +10975,7 @@
         <v>513</v>
       </c>
       <c r="L483" t="s">
-        <v>870</v>
+        <v>950</v>
       </c>
     </row>
     <row r="484" ht="13.8">
@@ -10670,7 +10989,7 @@
         <v>564</v>
       </c>
       <c r="L484" t="s">
-        <v>896</v>
+        <v>976</v>
       </c>
     </row>
     <row r="485" ht="13.8">
@@ -10698,7 +11017,7 @@
         <v>566</v>
       </c>
       <c r="L486" t="s">
-        <v>897</v>
+        <v>977</v>
       </c>
     </row>
     <row r="487" ht="46.25">
@@ -10712,7 +11031,7 @@
         <v>568</v>
       </c>
       <c r="L487" t="s">
-        <v>898</v>
+        <v>978</v>
       </c>
     </row>
     <row r="488" ht="35.05">
@@ -10726,7 +11045,7 @@
         <v>570</v>
       </c>
       <c r="L488" t="s">
-        <v>899</v>
+        <v>979</v>
       </c>
     </row>
     <row r="489" ht="35.05">
@@ -10740,7 +11059,7 @@
         <v>572</v>
       </c>
       <c r="L489" t="s">
-        <v>900</v>
+        <v>980</v>
       </c>
     </row>
     <row r="490" ht="46.25">
@@ -10754,7 +11073,7 @@
         <v>574</v>
       </c>
       <c r="L490" t="s">
-        <v>901</v>
+        <v>981</v>
       </c>
     </row>
     <row r="491" ht="13.8">
@@ -10790,7 +11109,7 @@
         <v>578</v>
       </c>
       <c r="L498" t="s">
-        <v>902</v>
+        <v>982</v>
       </c>
     </row>
     <row r="499" ht="79.85">
@@ -10804,7 +11123,7 @@
         <v>580</v>
       </c>
       <c r="L499" t="s">
-        <v>903</v>
+        <v>983</v>
       </c>
     </row>
     <row r="500" ht="12.8">
@@ -10836,7 +11155,7 @@
         <v>584</v>
       </c>
       <c r="L506" t="s">
-        <v>904</v>
+        <v>984</v>
       </c>
     </row>
     <row r="507" ht="13.8">
@@ -10864,7 +11183,7 @@
         <v>586</v>
       </c>
       <c r="L508" t="s">
-        <v>905</v>
+        <v>985</v>
       </c>
     </row>
     <row r="509" ht="13.8">
@@ -10897,7 +11216,7 @@
         <v>589</v>
       </c>
       <c r="L513" t="s">
-        <v>906</v>
+        <v>986</v>
       </c>
     </row>
     <row r="514" ht="13.8">
@@ -10925,7 +11244,7 @@
         <v>591</v>
       </c>
       <c r="L515" t="s">
-        <v>907</v>
+        <v>987</v>
       </c>
     </row>
     <row r="516" ht="13.8">
@@ -10958,7 +11277,7 @@
         <v>594</v>
       </c>
       <c r="L520" t="s">
-        <v>908</v>
+        <v>988</v>
       </c>
     </row>
     <row r="521" ht="79.85">
@@ -10972,7 +11291,7 @@
         <v>596</v>
       </c>
       <c r="L521" t="s">
-        <v>909</v>
+        <v>989</v>
       </c>
     </row>
     <row r="522" ht="13.8">
@@ -11013,7 +11332,7 @@
         <v>599</v>
       </c>
       <c r="L527" t="s">
-        <v>910</v>
+        <v>990</v>
       </c>
     </row>
     <row r="528" ht="13.8">
@@ -11031,7 +11350,7 @@
         <v>601</v>
       </c>
       <c r="L529" t="s">
-        <v>911</v>
+        <v>991</v>
       </c>
     </row>
     <row r="530" ht="13.8">
@@ -11058,7 +11377,7 @@
         <v>603</v>
       </c>
       <c r="L532" t="s">
-        <v>912</v>
+        <v>992</v>
       </c>
     </row>
     <row r="533" ht="43.25">
@@ -11072,7 +11391,7 @@
         <v>605</v>
       </c>
       <c r="L533" t="s">
-        <v>913</v>
+        <v>993</v>
       </c>
     </row>
     <row r="534" ht="57.45">
@@ -11086,7 +11405,7 @@
         <v>607</v>
       </c>
       <c r="L534" t="s">
-        <v>914</v>
+        <v>994</v>
       </c>
     </row>
     <row r="535" ht="13.8">
@@ -11119,7 +11438,7 @@
         <v>610</v>
       </c>
       <c r="L539" t="s">
-        <v>915</v>
+        <v>995</v>
       </c>
     </row>
     <row r="540" ht="79.85">
@@ -11133,7 +11452,7 @@
         <v>612</v>
       </c>
       <c r="L540" t="s">
-        <v>916</v>
+        <v>996</v>
       </c>
     </row>
     <row r="541" ht="46.25">
@@ -11147,7 +11466,7 @@
         <v>614</v>
       </c>
       <c r="L541" t="s">
-        <v>917</v>
+        <v>997</v>
       </c>
     </row>
     <row r="542" ht="13.8">
@@ -11164,571 +11483,1304 @@
         <v>98</v>
       </c>
     </row>
+    <row r="545" ht="12.8">
+      <c r="A545" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="546" ht="53.7">
+      <c r="I546" s="1">
+        <v>342</v>
+      </c>
+      <c r="J546" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K546" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
     <row r="547" ht="12.8">
-      <c r="A547" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F547" s="1"/>
-    </row>
-    <row r="548" ht="29.85">
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="22"/>
+      <c r="G547" s="4"/>
+      <c r="I547" s="1">
+        <v>383</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="548" ht="12.8">
       <c r="D548" s="4"/>
       <c r="E548" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F548" s="4"/>
-      <c r="G548" s="22" t="s">
-        <v>616</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F548" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G548" s="4"/>
     </row>
     <row r="549" ht="12.8">
       <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="23"/>
+      <c r="E549" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F549" s="4">
+        <v>2</v>
+      </c>
       <c r="G549" s="4"/>
     </row>
     <row r="550" ht="12.8">
       <c r="D550" s="4"/>
       <c r="E550" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F550" s="16" t="s">
-        <v>327</v>
+        <v>621</v>
+      </c>
+      <c r="F550" s="23" t="s">
+        <v>622</v>
       </c>
       <c r="G550" s="4"/>
     </row>
     <row r="551" ht="12.8">
       <c r="D551" s="4"/>
       <c r="E551" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F551" s="4">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="F551" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="G551" s="4"/>
     </row>
     <row r="552" ht="12.8">
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F552" s="24" t="s">
-        <v>619</v>
+        <v>406</v>
+      </c>
+      <c r="F552" s="4">
+        <v>2</v>
       </c>
       <c r="G552" s="4"/>
     </row>
     <row r="553" ht="12.8">
-      <c r="D553" s="4"/>
-      <c r="E553" s="4" t="s">
+      <c r="G553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I553" s="1">
+        <v>343</v>
+      </c>
+      <c r="J553" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="K553" s="25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="554" ht="13.8">
+      <c r="J554" s="7"/>
+      <c r="K554" s="4"/>
+    </row>
+    <row r="555" ht="13.8">
+      <c r="G555" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I555" s="1">
+        <v>344</v>
+      </c>
+      <c r="J555" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K555" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="556" ht="13.8">
+      <c r="E556" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J556" s="7"/>
+      <c r="K556" s="4"/>
+    </row>
+    <row r="557" ht="13.8">
+      <c r="G557" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I557" s="1">
+        <v>345</v>
+      </c>
+      <c r="J557" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K557" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="558" ht="13.8">
+      <c r="G558" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I558" s="1">
+        <v>346</v>
+      </c>
+      <c r="J558" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K558" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="559" ht="13.8">
+      <c r="G559" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I559" s="1">
+        <v>347</v>
+      </c>
+      <c r="J559" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="K559" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="560" ht="13.8">
+      <c r="I560" s="1">
+        <v>348</v>
+      </c>
+      <c r="J560" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K560" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="561" ht="23.85">
+      <c r="G561" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I561" s="1">
+        <v>349</v>
+      </c>
+      <c r="J561" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K561" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="562" ht="13.8">
+      <c r="E562" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J562" s="7"/>
+      <c r="K562" s="4"/>
+    </row>
+    <row r="563" ht="13.8">
+      <c r="G563" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I563" s="1">
+        <v>350</v>
+      </c>
+      <c r="J563" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K563" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="564" ht="23.85">
+      <c r="G564" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I564" s="1">
+        <v>351</v>
+      </c>
+      <c r="J564" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K564" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="565" ht="13.8">
+      <c r="I565" s="1">
+        <v>352</v>
+      </c>
+      <c r="J565" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K565" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="566" ht="23.85">
+      <c r="I566" s="1">
+        <v>353</v>
+      </c>
+      <c r="J566" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K566" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="567" ht="23.85">
+      <c r="G567" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I567" s="1">
+        <v>354</v>
+      </c>
+      <c r="J567" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K567" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="568" ht="13.8">
+      <c r="G568" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I568" s="1">
+        <v>355</v>
+      </c>
+      <c r="J568" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K568" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="569" ht="13.8">
+      <c r="E569" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G569" s="26"/>
+      <c r="J569" s="7"/>
+      <c r="K569" s="4"/>
+    </row>
+    <row r="570" ht="13.8">
+      <c r="G570" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I570" s="1">
+        <v>356</v>
+      </c>
+      <c r="J570" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K570" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="571" ht="13.8">
+      <c r="I571" s="1">
+        <v>357</v>
+      </c>
+      <c r="J571" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K571" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="572" ht="23.85">
+      <c r="I572" s="1">
+        <v>358</v>
+      </c>
+      <c r="J572" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K572" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="573" ht="57.45">
+      <c r="G573" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I573" s="1">
+        <v>359</v>
+      </c>
+      <c r="J573" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K573" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="574" ht="13.8">
+      <c r="I574" s="1">
+        <v>360</v>
+      </c>
+      <c r="J574" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K574" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="575" ht="13.8">
+      <c r="G575" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I575" s="1">
+        <v>361</v>
+      </c>
+      <c r="J575" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K575" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="576" ht="23.85">
+      <c r="G576" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I576" s="1">
+        <v>362</v>
+      </c>
+      <c r="J576" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="K576" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="577" ht="13.8">
+      <c r="I577" s="1">
+        <v>363</v>
+      </c>
+      <c r="J577" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K577" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="578" ht="13.8">
+      <c r="G578" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I578" s="1">
+        <v>364</v>
+      </c>
+      <c r="J578" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="K578" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="579" ht="23.85">
+      <c r="I579" s="1">
+        <v>365</v>
+      </c>
+      <c r="J579" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K579" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="580" ht="13.8">
+      <c r="G580" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I580" s="1">
+        <v>366</v>
+      </c>
+      <c r="J580" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K580" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="581" ht="13.8">
+      <c r="I581" s="1">
+        <v>367</v>
+      </c>
+      <c r="J581" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K581" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="582" ht="13.8">
+      <c r="J582" s="7"/>
+      <c r="K582" s="4"/>
+    </row>
+    <row r="583" ht="68.65">
+      <c r="G583" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I583" s="1">
+        <v>368</v>
+      </c>
+      <c r="J583" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="K583" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="584" ht="13.8">
+      <c r="I584" s="1">
+        <v>369</v>
+      </c>
+      <c r="J584" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K584" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="585" ht="46.25">
+      <c r="G585" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I585" s="1">
+        <v>370</v>
+      </c>
+      <c r="J585" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K585" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="586" ht="23.85">
+      <c r="G586" s="26"/>
+      <c r="I586" s="1">
+        <v>371</v>
+      </c>
+      <c r="J586" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="K586" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="587" ht="53.7">
+      <c r="G587" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I587" s="1">
+        <v>372</v>
+      </c>
+      <c r="J587" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K587" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="588" ht="64.15">
+      <c r="G588" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I588" s="1">
+        <v>373</v>
+      </c>
+      <c r="J588" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K588" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="589" ht="13.8">
+      <c r="G589" s="26"/>
+      <c r="I589" s="1">
+        <v>374</v>
+      </c>
+      <c r="J589" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K589" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="590" ht="13.8">
+      <c r="G590" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I590" s="1">
+        <v>375</v>
+      </c>
+      <c r="J590" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K590" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="591" ht="13.8">
+      <c r="G591" s="26"/>
+      <c r="I591" s="1">
+        <v>376</v>
+      </c>
+      <c r="J591" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K591" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="592" ht="13.8">
+      <c r="G592" s="26"/>
+      <c r="I592" s="1">
+        <v>377</v>
+      </c>
+      <c r="J592" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="K592" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="593" ht="79.85">
+      <c r="G593" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I593" s="1">
+        <v>378</v>
+      </c>
+      <c r="J593" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K593" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="594" ht="13.8">
+      <c r="E594" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G594" s="26"/>
+      <c r="J594" s="7"/>
+      <c r="K594" s="4"/>
+    </row>
+    <row r="595" ht="13.8">
+      <c r="G595" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I595" s="1">
+        <v>379</v>
+      </c>
+      <c r="J595" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K595" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="596" ht="13.8">
+      <c r="J596" s="7"/>
+      <c r="K596" s="4"/>
+    </row>
+    <row r="597" ht="12.8">
+      <c r="D597" s="4"/>
+      <c r="E597" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F597" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G597" s="4"/>
+    </row>
+    <row r="598" ht="12.8">
+      <c r="D598" s="4"/>
+      <c r="E598" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F598" s="4">
+        <v>2</v>
+      </c>
+      <c r="G598" s="4"/>
+    </row>
+    <row r="599" ht="12.8">
+      <c r="D599" s="4"/>
+      <c r="E599" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F599" s="23"/>
+      <c r="G599" s="4"/>
+    </row>
+    <row r="600" ht="12.8">
+      <c r="D600" s="4"/>
+      <c r="E600" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F600" s="16"/>
+      <c r="G600" s="4"/>
+    </row>
+    <row r="601" ht="12.8">
+      <c r="D601" s="4"/>
+      <c r="E601" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F601" s="4">
+        <v>2</v>
+      </c>
+      <c r="G601" s="4"/>
+    </row>
+    <row r="602" ht="13.8">
+      <c r="J602" s="7"/>
+      <c r="K602" s="4"/>
+    </row>
+    <row r="603" ht="13.8">
+      <c r="J603" s="7"/>
+      <c r="K603" s="4"/>
+    </row>
+    <row r="604" ht="13.8">
+      <c r="J604" s="7"/>
+      <c r="K604" s="4"/>
+    </row>
+    <row r="605" ht="13.8">
+      <c r="I605" s="1">
+        <v>380</v>
+      </c>
+      <c r="J605" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K605" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="606" ht="13.8">
+      <c r="G606" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I606" s="1">
+        <v>381</v>
+      </c>
+      <c r="J606" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K606" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="607" ht="105.95">
+      <c r="I607" s="1">
+        <v>382</v>
+      </c>
+      <c r="J607" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="K607" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="608" ht="13.8">
+      <c r="J608" s="27"/>
+      <c r="K608" s="4"/>
+    </row>
+    <row r="609" ht="13.8">
+      <c r="E609" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J609" s="7"/>
+    </row>
+    <row r="610" ht="12.8">
+      <c r="E610" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="614" ht="12.8">
+      <c r="A614" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F614" s="1"/>
+    </row>
+    <row r="615" ht="29.85">
+      <c r="D615" s="4"/>
+      <c r="E615" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F615" s="4"/>
+      <c r="G615" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="616" ht="12.8">
+      <c r="D616" s="4"/>
+      <c r="E616" s="4"/>
+      <c r="F616" s="22"/>
+      <c r="G616" s="4"/>
+    </row>
+    <row r="617" ht="12.8">
+      <c r="D617" s="4"/>
+      <c r="E617" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F617" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G617" s="4"/>
+    </row>
+    <row r="618" ht="12.8">
+      <c r="D618" s="4"/>
+      <c r="E618" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F618" s="4">
+        <v>2</v>
+      </c>
+      <c r="G618" s="4"/>
+    </row>
+    <row r="619" ht="12.8">
+      <c r="D619" s="4"/>
+      <c r="E619" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F619" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="G619" s="4"/>
+    </row>
+    <row r="620" ht="12.8">
+      <c r="D620" s="4"/>
+      <c r="E620" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F553" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="G553" s="4"/>
-    </row>
-    <row r="554" ht="12.8">
-      <c r="D554" s="4"/>
-      <c r="E554" s="4" t="s">
+      <c r="F620" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="G620" s="4"/>
+    </row>
+    <row r="621" ht="12.8">
+      <c r="D621" s="4"/>
+      <c r="E621" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F554" s="4">
+      <c r="F621" s="4">
         <v>2</v>
       </c>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="555" ht="12.8">
-      <c r="E555" s="1" t="s">
+      <c r="G621" s="4"/>
+    </row>
+    <row r="622" ht="12.8">
+      <c r="E622" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F555" s="25" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="556" ht="12.8">
-      <c r="F556" s="1"/>
-      <c r="I556" s="1">
+      <c r="F622" s="29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="623" ht="12.8">
+      <c r="F623" s="1"/>
+      <c r="I623" s="1">
         <v>320</v>
       </c>
-      <c r="J556" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K556" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="L556" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="557" ht="13.8">
-      <c r="F557" s="1"/>
-      <c r="G557" s="1" t="s">
+      <c r="J623" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K623" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="L623" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="624" ht="13.8">
+      <c r="F624" s="1"/>
+      <c r="G624" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I557" s="6">
+      <c r="I624" s="6">
         <v>321</v>
       </c>
-      <c r="J557" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K557" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="L557" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="558" ht="13.8">
-      <c r="F558" s="1"/>
-      <c r="I558" s="6">
+      <c r="J624" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K624" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L624" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="625" ht="13.8">
+      <c r="F625" s="1"/>
+      <c r="I625" s="6">
         <v>322</v>
       </c>
-      <c r="J558" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="K558" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="L558" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="559" ht="13.8">
-      <c r="F559" s="1"/>
-      <c r="G559" s="1" t="s">
+      <c r="J625" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="K625" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="L625" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="626" ht="13.8">
+      <c r="F626" s="1"/>
+      <c r="G626" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I559" s="6">
+      <c r="I626" s="6">
         <v>323</v>
       </c>
-      <c r="J559" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="K559" s="8" t="s">
+      <c r="J626" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="K626" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="L626" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="627" ht="13.8">
+      <c r="F627" s="1"/>
+      <c r="I627" s="6">
+        <v>324</v>
+      </c>
+      <c r="J627" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="K627" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="L627" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="628" s="1" customFormat="1" ht="13.8">
+      <c r="A628" s="4"/>
+      <c r="B628" s="4"/>
+      <c r="C628" s="4"/>
+      <c r="D628" s="4"/>
+      <c r="E628" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
+      <c r="J628" s="15"/>
+      <c r="K628" s="4"/>
+      <c r="L628" s="4"/>
+    </row>
+    <row r="629" s="1" customFormat="1" ht="13.8">
+      <c r="A629" s="4"/>
+      <c r="B629" s="4"/>
+      <c r="C629" s="4"/>
+      <c r="D629" s="4"/>
+      <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
+      <c r="J629" s="15"/>
+      <c r="K629" s="4"/>
+      <c r="L629" s="4"/>
+    </row>
+    <row r="630" ht="13.4" customHeight="1">
+      <c r="F630" s="1"/>
+      <c r="G630" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I630" s="6">
+        <v>325</v>
+      </c>
+      <c r="J630" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K630" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L630" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="631" ht="13.4" customHeight="1">
+      <c r="E631" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F631" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="I631" s="6"/>
+      <c r="J631" s="12"/>
+      <c r="K631" s="8"/>
+    </row>
+    <row r="632" ht="13.8">
+      <c r="F632" s="1"/>
+      <c r="G632" s="4"/>
+      <c r="I632" s="6">
+        <v>326</v>
+      </c>
+      <c r="J632" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="K632" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="L632" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="633" ht="13.8">
+      <c r="F633" s="1"/>
+      <c r="G633" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I633" s="6">
+        <v>327</v>
+      </c>
+      <c r="J633" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="K633" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="L633" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="634" ht="23.85">
+      <c r="F634" s="1"/>
+      <c r="G634" s="4"/>
+      <c r="I634" s="6">
+        <v>328</v>
+      </c>
+      <c r="J634" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="K634" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="L634" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="635" ht="13.8">
+      <c r="D635" s="4"/>
+      <c r="E635" s="4"/>
+      <c r="F635" s="1"/>
+      <c r="G635" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I635" s="6">
+        <v>329</v>
+      </c>
+      <c r="J635" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="K635" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="L635" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="636" ht="13.8">
+      <c r="F636" s="1"/>
+      <c r="G636" s="4"/>
+      <c r="I636" s="6">
+        <v>330</v>
+      </c>
+      <c r="J636" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="K636" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="L636" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="637" ht="13.8">
+      <c r="F637" s="1"/>
+      <c r="I637" s="6"/>
+      <c r="J637" s="6"/>
+      <c r="K637" s="8"/>
+    </row>
+    <row r="638" ht="13.8">
+      <c r="F638" s="1"/>
+      <c r="G638" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I638" s="6">
+        <v>331</v>
+      </c>
+      <c r="J638" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="K638" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L638" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="639" ht="13.8">
+      <c r="F639" s="1"/>
+      <c r="G639" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I639" s="6">
+        <v>332</v>
+      </c>
+      <c r="J639" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K639" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L639" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="640" ht="13.8">
+      <c r="F640" s="1"/>
+      <c r="G640" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I640" s="6">
+        <v>333</v>
+      </c>
+      <c r="J640" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K640" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L640" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="641" ht="13.8">
+      <c r="F641" s="1"/>
+      <c r="G641" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I641" s="6">
+        <v>334</v>
+      </c>
+      <c r="J641" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="K641" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="L641" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="642" ht="13.8">
+      <c r="F642" s="1"/>
+      <c r="G642" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I642" s="6">
+        <v>335</v>
+      </c>
+      <c r="J642" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K642" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L642" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="643" ht="13.8">
+      <c r="F643" s="1"/>
+      <c r="G643" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I643" s="6">
+        <v>336</v>
+      </c>
+      <c r="J643" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K643" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L643" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="644" ht="13.8">
+      <c r="F644" s="1"/>
+      <c r="G644" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I644" s="6">
+        <v>337</v>
+      </c>
+      <c r="J644" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K644" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L644" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="645" ht="13.8">
+      <c r="F645" s="1"/>
+      <c r="G645" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I645" s="6">
+        <v>338</v>
+      </c>
+      <c r="J645" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="K645" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="L645" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="646" ht="13.8">
+      <c r="E646" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="L559" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="560" ht="13.8">
-      <c r="F560" s="1"/>
-      <c r="I560" s="6">
-        <v>324</v>
-      </c>
-      <c r="J560" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="K560" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="L560" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="561" s="1" customFormat="1" ht="13.8">
-      <c r="A561" s="4"/>
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G561" s="4"/>
-      <c r="H561" s="4"/>
-      <c r="J561" s="15"/>
-      <c r="K561" s="4"/>
-      <c r="L561" s="4"/>
-    </row>
-    <row r="562" s="1" customFormat="1" ht="13.8">
-      <c r="A562" s="4"/>
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="G562" s="4"/>
-      <c r="H562" s="4"/>
-      <c r="J562" s="15"/>
-      <c r="K562" s="4"/>
-      <c r="L562" s="4"/>
-    </row>
-    <row r="563" ht="13.4" customHeight="1">
-      <c r="F563" s="1"/>
-      <c r="G563" s="4" t="s">
+      <c r="F646" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="I646" s="6"/>
+      <c r="J646" s="12"/>
+      <c r="K646" s="8"/>
+    </row>
+    <row r="647" ht="13.8">
+      <c r="F647" s="1"/>
+      <c r="G647" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I563" s="6">
-        <v>325</v>
-      </c>
-      <c r="J563" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K563" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="L563" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="564" ht="13.4" customHeight="1">
-      <c r="E564" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F564" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="I564" s="6"/>
-      <c r="J564" s="12"/>
-      <c r="K564" s="8"/>
-    </row>
-    <row r="565" ht="13.8">
-      <c r="F565" s="1"/>
-      <c r="G565" s="4"/>
-      <c r="I565" s="6">
-        <v>326</v>
-      </c>
-      <c r="J565" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="K565" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="L565" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="566" ht="13.8">
-      <c r="F566" s="1"/>
-      <c r="G566" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I566" s="6">
-        <v>327</v>
-      </c>
-      <c r="J566" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="K566" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="L566" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="567" ht="23.85">
-      <c r="F567" s="1"/>
-      <c r="G567" s="4"/>
-      <c r="I567" s="6">
-        <v>328</v>
-      </c>
-      <c r="J567" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="K567" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="L567" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="568" ht="13.8">
-      <c r="D568" s="4"/>
-      <c r="E568" s="4"/>
-      <c r="F568" s="1"/>
-      <c r="G568" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I568" s="6">
-        <v>329</v>
-      </c>
-      <c r="J568" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="K568" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="L568" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="569" ht="13.8">
-      <c r="F569" s="1"/>
-      <c r="G569" s="4"/>
-      <c r="I569" s="6">
-        <v>330</v>
-      </c>
-      <c r="J569" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="K569" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="L569" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="570" ht="13.8">
-      <c r="F570" s="1"/>
-      <c r="I570" s="6"/>
-      <c r="J570" s="6"/>
-      <c r="K570" s="8"/>
-    </row>
-    <row r="571" ht="13.8">
-      <c r="F571" s="1"/>
-      <c r="G571" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I571" s="6">
-        <v>331</v>
-      </c>
-      <c r="J571" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="K571" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="L571" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="572" ht="13.8">
-      <c r="F572" s="1"/>
-      <c r="G572" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I572" s="6">
-        <v>332</v>
-      </c>
-      <c r="J572" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K572" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L572" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="573" ht="13.8">
-      <c r="F573" s="1"/>
-      <c r="G573" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I573" s="6">
-        <v>333</v>
-      </c>
-      <c r="J573" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K573" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L573" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="574" ht="13.8">
-      <c r="F574" s="1"/>
-      <c r="G574" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I574" s="6">
-        <v>334</v>
-      </c>
-      <c r="J574" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="K574" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="L574" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="575" ht="13.8">
-      <c r="F575" s="1"/>
-      <c r="G575" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I575" s="6">
-        <v>335</v>
-      </c>
-      <c r="J575" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K575" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L575" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="576" ht="13.8">
-      <c r="F576" s="1"/>
-      <c r="G576" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I576" s="6">
-        <v>336</v>
-      </c>
-      <c r="J576" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="K576" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="L576" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="577" ht="13.8">
-      <c r="F577" s="1"/>
-      <c r="G577" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I577" s="6">
-        <v>337</v>
-      </c>
-      <c r="J577" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K577" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L577" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="578" ht="13.8">
-      <c r="F578" s="1"/>
-      <c r="G578" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I578" s="6">
-        <v>338</v>
-      </c>
-      <c r="J578" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="K578" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="L578" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="579" ht="13.8">
-      <c r="E579" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F579" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="I579" s="6"/>
-      <c r="J579" s="12"/>
-      <c r="K579" s="8"/>
-    </row>
-    <row r="580" ht="13.8">
-      <c r="F580" s="1"/>
-      <c r="G580" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I580" s="6">
+      <c r="I647" s="6">
         <v>339</v>
       </c>
-      <c r="J580" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="K580" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="L580" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="581" ht="13.8">
-      <c r="F581" s="1"/>
-      <c r="G581" s="4"/>
-      <c r="I581" s="6">
+      <c r="J647" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="K647" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="L647" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="648" ht="13.8">
+      <c r="F648" s="1"/>
+      <c r="G648" s="4"/>
+      <c r="I648" s="6">
         <v>340</v>
       </c>
-      <c r="J581" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="K581" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="L581" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="582" ht="13.8">
-      <c r="F582" s="1"/>
-      <c r="G582" s="4"/>
-      <c r="I582" s="6">
+      <c r="J648" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="K648" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="L648" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="649" ht="13.8">
+      <c r="F649" s="1"/>
+      <c r="G649" s="4"/>
+      <c r="I649" s="6">
         <v>341</v>
       </c>
-      <c r="J582" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="K582" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="L582" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="583" ht="13.8">
-      <c r="F583" s="1"/>
-      <c r="G583" s="4"/>
-      <c r="I583" s="6"/>
-      <c r="J583" s="6"/>
-      <c r="K583" s="8"/>
-    </row>
-    <row r="584" ht="13.8">
-      <c r="F584" s="1"/>
-      <c r="G584" s="4"/>
-      <c r="I584" s="6"/>
-      <c r="J584" s="6"/>
-      <c r="K584" s="8"/>
-    </row>
-    <row r="585" ht="13.8">
-      <c r="E585" s="1" t="s">
+      <c r="J649" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="K649" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="L649" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="650" ht="13.8">
+      <c r="F650" s="1"/>
+      <c r="G650" s="4"/>
+      <c r="I650" s="6"/>
+      <c r="J650" s="6"/>
+      <c r="K650" s="8"/>
+    </row>
+    <row r="651" ht="13.8">
+      <c r="F651" s="1"/>
+      <c r="G651" s="4"/>
+      <c r="I651" s="6"/>
+      <c r="J651" s="6"/>
+      <c r="K651" s="8"/>
+    </row>
+    <row r="652" ht="13.8">
+      <c r="E652" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F585" s="1">
+      <c r="F652" s="1">
         <v>3</v>
       </c>
-      <c r="J585" s="6"/>
-      <c r="K585" s="6"/>
-    </row>
-    <row r="586" ht="12.8">
-      <c r="E586" s="1" t="s">
+      <c r="J652" s="6"/>
+      <c r="K652" s="6"/>
+    </row>
+    <row r="653" ht="12.8">
+      <c r="E653" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F586" s="1"/>
-    </row>
-    <row r="587" ht="12.8">
-      <c r="E587" s="1" t="s">
+      <c r="F653" s="1"/>
+    </row>
+    <row r="654" ht="12.8">
+      <c r="E654" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F587" s="1"/>
-    </row>
-    <row r="588" ht="12.8">
-      <c r="F588" s="1"/>
-    </row>
-    <row r="589" ht="12.8">
-      <c r="F589" s="1"/>
-      <c r="G589" s="2"/>
-    </row>
-    <row r="590" ht="12.8">
-      <c r="F590" s="1"/>
-      <c r="G590" s="2"/>
+      <c r="F654" s="1"/>
+    </row>
+    <row r="655" ht="12.8">
+      <c r="F655" s="1"/>
+    </row>
+    <row r="656" ht="12.8">
+      <c r="F656" s="1"/>
+      <c r="G656" s="2"/>
+    </row>
+    <row r="657" ht="12.8">
+      <c r="F657" s="1"/>
+      <c r="G657" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I108:I339 I4:I106 I341:I547 J589:J590 J548:J552 J583:J584 J556 J570 I549:I1048576">
+  <conditionalFormatting sqref="I108:I339 I4:I106 J656:J657 J615:J619 J650:J651 J623 J637 I616:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I602:I610 I564:I596 I554:I561">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I562:I563">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -3957,7 +3957,7 @@
 My handiwork has its limits, but eventually, It will be nice to have some flashy upgrades.</t>
   </si>
   <si>
-    <t xml:space="preserve">참고로, 로이텔 마트의 수레도 조금 확장해 뒀다고.
+    <t xml:space="preserve">그리고 또, 로이텔 마트의 수레도 조금 확장해 뒀다고.
 내 수작업으로는 이 정도가 한계지만, 미래에는 멋지게 개조하고 싶네.</t>
   </si>
   <si>
@@ -4007,7 +4007,7 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">… #pc. 빚을 갚아 준 모양이네. 고마워.
-…표정이 안 좋다고? 음, 실은 말이야, 네가 없는 동안 미실리아의 고관이랑 만나고 왔어.</t>
+…표정이 안 좋다고? 음, 실은 말이야, 네가 없는 사이에 미실리아의 고관이랑 만나고 왔어.</t>
     </r>
   </si>
   <si>
@@ -4221,7 +4221,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">아</t>
+      <t xml:space="preserve">아~</t>
     </r>
     <r>
       <rPr>
@@ -4231,7 +4231,7 @@
         <family val="0"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">～앙, 베리히님도 참!</t>
+      <t xml:space="preserve">앙, 베리히님도 참!</t>
     </r>
   </si>
   <si>
@@ -4327,7 +4327,7 @@
     <t xml:space="preserve">You fools! How dare you summon a Mysilian dignitary to such a disgraceful gathering!</t>
   </si>
   <si>
-    <t xml:space="preserve">이 녀석들, 미실리아의 중진을 이런 후안무치한 곳으로 부르다니, 대체 뭘 할 작정이냐!</t>
+    <t xml:space="preserve">이 녀석들, 미실리아의 중진을 이런 낯뜨거운 곳으로 부르다니, 대체 뭘 할 작정이냐!</t>
   </si>
   <si>
     <t xml:space="preserve">…待て待て、ロイテル。お主と話をしたい高官というのは、わしのことだ。
@@ -4472,7 +4472,7 @@
         <family val="0"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">… 그래, 환상의 하늘빛 튤립… 푸훗!</t>
+      <t xml:space="preserve">… 그래, 환상의 하늘빛 튤립… 푸흡!</t>
     </r>
   </si>
   <si>
@@ -4494,7 +4494,7 @@
   </si>
   <si>
     <t xml:space="preserve">…미, 미안하구나. 나도 모르게.
-물론, 이건 웃을 일이 아니지. 이 꽃 때문에 미실리아는 너 같은 귀중한 인재를 잃을 뻔 했으니 말이야.</t>
+물론, 이건 웃을 일이 아니지. 그 꽃 때문에 미실리아는 너 같은 귀중한 인재를 잃을 뻔 했으니 말이야.</t>
   </si>
   <si>
     <t xml:space="preserve">カルドーン様…身に余るお言葉です。閣下が私をそこまで認めてくださっていたとは。</t>
@@ -4521,7 +4521,7 @@
         <family val="0"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">… 몸 둘 바를 모르겠습니다. 각하께서 저를 그렇게까지 생각하고 계셨다니.</t>
+      <t xml:space="preserve">… 몸 둘 바를 모르겠습니다. 각하께서 저를 그렇게까지 인정하고 계셨다니.</t>
     </r>
   </si>
   <si>
@@ -5369,9 +5369,9 @@
   <dimension ref="A1:N657"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L608" activeCellId="0" sqref="L608"/>
+      <selection pane="bottomLeft" activeCell="L587" activeCellId="0" sqref="L587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5785,7 +5785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="1" t="n">
         <v>263</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I60" s="1" t="n">
         <v>257</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I108" s="1" t="n">
         <v>22</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I112" s="1" t="n">
         <v>25</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I142" s="1" t="n">
         <v>46</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="1" t="n">
         <v>94</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I257" s="1" t="n">
         <v>132</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="F278" s="2"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I279" s="1" t="n">
         <v>110</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I285" s="1" t="n">
         <v>143</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I306" s="1" t="n">
         <v>154</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" s="1" customFormat="true" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" s="1" customFormat="true" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -8939,7 +8939,7 @@
       <c r="K349" s="4"/>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" s="1" customFormat="true" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -8963,7 +8963,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="351" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -8987,7 +8987,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="352" s="1" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -9011,7 +9011,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="353" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -9035,7 +9035,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="354" s="1" customFormat="true" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -9083,7 +9083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="356" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -9107,7 +9107,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="357" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -9155,7 +9155,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="359" s="1" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" s="1" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -9179,7 +9179,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="360" s="1" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -9203,7 +9203,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="361" s="1" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -9295,7 +9295,7 @@
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
     </row>
-    <row r="366" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -9367,7 +9367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="369" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -9391,7 +9391,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="370" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -9415,7 +9415,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="371" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -9439,7 +9439,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="true" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -9463,7 +9463,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="373" s="1" customFormat="true" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -9553,7 +9553,7 @@
       <c r="K377" s="4"/>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" s="1" customFormat="true" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" s="1" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -9625,7 +9625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="381" s="1" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -9649,7 +9649,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="382" s="1" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -9697,7 +9697,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="384" s="1" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -9721,7 +9721,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="385" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -9745,7 +9745,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="386" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -9769,7 +9769,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="387" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -9793,7 +9793,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="388" s="1" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -9817,7 +9817,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="389" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -9841,7 +9841,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="390" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -9865,7 +9865,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="391" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -9889,7 +9889,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="392" s="1" customFormat="true" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -9913,7 +9913,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="393" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -10035,7 +10035,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="399" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -10096,7 +10096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" s="1" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -10168,7 +10168,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="405" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -10192,7 +10192,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="406" s="1" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -10216,7 +10216,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="407" s="1" customFormat="true" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -10240,7 +10240,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="408" s="1" customFormat="true" ht="231.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -10264,7 +10264,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="409" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -10288,7 +10288,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="410" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -10336,7 +10336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="412" s="1" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -10360,7 +10360,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="413" s="1" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -10384,7 +10384,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="414" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -10408,7 +10408,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="415" s="1" customFormat="true" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -10432,7 +10432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="416" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -10504,7 +10504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="419" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -10552,7 +10552,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="421" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -10576,7 +10576,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="422" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -10658,7 +10658,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="430" s="1" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -10704,7 +10704,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="432" s="1" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -10726,7 +10726,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="433" s="1" customFormat="true" ht="439.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" s="1" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -10750,7 +10750,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="434" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -10798,7 +10798,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="436" s="1" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -10822,7 +10822,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="437" s="1" customFormat="true" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -10846,7 +10846,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="438" s="1" customFormat="true" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -10892,7 +10892,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="440" s="1" customFormat="true" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -10979,7 +10979,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G449" s="4"/>
       <c r="I449" s="1" t="n">
         <v>246</v>
@@ -11103,7 +11103,7 @@
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
     </row>
-    <row r="465" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G465" s="4" t="s">
         <v>204</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I499" s="1" t="n">
         <v>302</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G585" s="27" t="s">
         <v>924</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G588" s="27" t="s">
         <v>924</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G593" s="27" t="s">
         <v>924</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="114.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I607" s="1" t="n">
         <v>382</v>
       </c>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1125">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -3499,6 +3499,269 @@
   </si>
   <si>
     <t xml:space="preserve">She ran away... </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">negotiation_darkness</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、ケトルの姿を見なかったか？ コルゴンにボロボロにされたジョウロを直してもらおうと思ったんだが、どこにも見当たらなくてな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, have you seen Kettle around? Corgon made a real mess of my watering can, and I was hoping Kettle could patch it up, but he's nowhere to be found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そういえば、しばらく姿を見かけませんね。私もひび割れた鍋の修理を頼みたいと思っていたところです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now that you mention it, I haven't seen him for quite a while. I was hoping he might mend my cracked pot, as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">困ったな。クルイツゥアにも聞いてみたが、なぜかケトルの名を出すだけで機嫌を悪くしてしまうんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is troubling. I asked Quruitzia too, but oddly, just mentioning Kettle's name sets her off in a foul mood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの子は悩みの多い年頃なのですよ。そうですね、デミタス先生にケトルさんを見かけたか聞いてみましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, she is at a delicate age, burdened with many worries. Perhaps we should inquire with Master Demitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…？　なんでまた、あんな亡霊を先生と？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...? Why would you call that ghost a master?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、失礼ですよ、ロイテル様。あの方は、知れば知るほど謎めいていて…まるで古代の遺跡のように、その内に多くを秘めているのです。生前は魔法書の複製を手掛けるほどの賢者だったとか。
+だから、私は敬意を込めて先生とお呼びすることにしたのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, now, that's hardly respectful, Lord Loytel. The more you learn about him, the more intriguing he becomes—like an ancient ruin filled with hidden secrets. They say that in life, he even dabbled in the replication of magical tomes—a true scholar.
+That’s why I’ve chosen to address him respectfully as 'Master.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん…いや、何もいわないでおこう。デミタスを見る時、あなたの目はいつも輝いていたからな。
+よし、早速その「先生」の所に行ってみよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris... No, I'll say nothing more. Your eyes always sparkle when you speak of him.
+Very well, let’s visit this 'Master' of yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去れ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも先生、どうかお話を！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Master, please grant us a moment!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我は弟子をとった覚えなどない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recall taking no disciples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあまあ、二人とも穏便にしてくれ。実はケトルを探しているんだが、どこに行ったか知らないか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, now, let's all remain calm. We're looking for Kettle—do you know where he's gone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんなことか…ククク…あの者は、汝らに何も告げず旅立ったのだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is that all? Heh heh heh... So, the man has left without a word, has he?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅立った？　いったいどこへ、何のために？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left? To where, and for what purpose?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者の行先など一つしかない。かつての弟子、イスシズルを訪ねているのだろう。交渉でも持ちかけるつもりでな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His destination can only be one place—to seek out his former disciple, Issizzle. Perhaps to negotiate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうか、きっとコルゴンとクルイツゥアを守るために…だが、交渉の材料など、我々にあるだろうか。ケトルの身も心配だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation? Surely, it's to protect Quruitzia and Corgon... but do we have anything of value to offer? I worry greatly for Kettle’s safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…竜の子と災いの魔女を守るためと？
+ククク…めでたいものだ。あるいは、その二人こそが交渉の駒になるかもしれぬとは、心によぎりもしないのだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...To protect the dragon child and the ill-eyed witch? 
+Heh heh heh... How charmingly naive. Hast thou never considered that those two might themselves be bargaining chips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前さん…まさか、ケトルが我々を売るつもりだとでもいいたいのか？　そんなことあるはずがない！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you suggesting... Kettle would betray us? That’s absurd!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝はケトルの何を知っている？　ザシム王の時代…この身がまだ人間だった頃、我はあの者を知っていた。弟子のイスシズルもな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... What dost thou truly know of Kettle? Back in the reign of King Zashim, when I yet walked as a man, I knew him well—him and his disciple Issizzle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔石に取り憑かれたイスシズルを討つため、ケトルが弟子の居城におもむいた時、我はそこにいたのだ。
+…あの日、二人が密室で何を語り合ったかは知らぬ。だが、ケトルはその手を血に染めることなく、イスシズルの部屋を後にした。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Kettle went to confront Issizzle, who was already ensnared by the Magic Stone, I was there. 
+...What the two whispered of within those walls, I know not. Yet when Kettle emerged, his hands were free of blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やがて、かつてのよりを戻したかのように、黒いマントの男がたびたびケトルの元を訪れるようになった。
+黒いマントの男…ククク…そう、その時はイスシズルもまだ人の心を持った人間だったのだ。その時はな。
+魔石があの男をどのような恐ろしい化け物に変えたかは、汝らも耳にしているだろう。不浄なる闇、亡者を操る呪われた死霊使い…ひとたびその名が囁かれれば、子どもは泣き、大人ですら震え上がる穢れた存在だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon after, a figure cloaked in black bagan to visit Kettle, time and again, as though the bond between master and student had never been severed.
+A man in black... heh heh heh... indeed, Issizzle still remained human then.
+But thou knowest well what dread monster the Magic Stone eventually made of him. An unholy darkness, a necromancer who commands the dead... whose whispered name strikes terror into children and adults alike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
+我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
+I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said Issizzle was captivated by the Stone. Heh heh heh... Perhaps he, too, is but another soul bound by its wicked allure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんな、信じられません。あのケトルさんが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No... I can’t believe it. Not Kettle...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私もだ。ケトルは確かに謎だらけだし、話を聞いていると、彼が「人間」かどうかもわからなくなる。
+だが、竜の子に魔女の子、おまけに宙に浮かぶボロ布の亡霊とこうやって話している今、そんなことはどうでもよく思えてくるよ…おっと、ボロ布とは流石に失礼だったな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor can I. 
+Kettle is a riddle, to be sure, I cannot even say for certain if he is human. But considering I’m living with a floating ragged ghost nowadays, on top of a dragon hatchling, and the descendant of an ancient witch, I suppose such questions hardly matter anymore... Oh, no offense meant by 'ragged ghost.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…なんとでも呼ぶがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Call me as thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ともかく、ケトルが何を考えているにせよ、我々は彼を信じて帰りを待つだけだ。残念だが、壊れた鍋の修理はまだ先になりそうだな、ファリスさん。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless, whatever Kettle’s intentions may be, we have no choice but to trust him and await his return. I'm afraid your cracked pot must wait, Lady Farris.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、かまいません。でも、コルゴンがフライパンもボロボロにかじっていて…ふふ、ケトルさんは、帰ってきたらきっと大忙しですね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s quite all right. Though, Corgon has taken quite a liking to chewing through my frying pan as well. Heh, I imagine Kettle will be quite busy when he returns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝らと話していると調子が狂う。…待て、汝にこの腕輪をやろう。我にはもう必要のないものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... Speaking with thee muddles my wits. Here, take this bracelet—I no longer have need of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんだこれは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの東の山脈のふもと、暗く古い森の中に、我々「追放者」の暮らす村がある。結界に守られているが、この腕輪があれば拒まれることはない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the shadow of the eastern mountains of Mysiria lies a dark, ancient forest. There, thou wilt find the village of the Exiles—my kin, my kindred. It is shielded by a barrier, yet this bracelet shall grant thee passage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の長のビチェリンは食えぬ老いぼれだが、今は失われし貴重な知識を持っている。もしイスシズルと、そしてケトルと相対することになるなら、あの老いぼれの授ける力は役に立つだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek out their elder, Bicerin. A cunning old wretch, yet one who holds knowledge long lost to the world. Should thou find thyself facing Issizzle or even Kettle, the elder’s wisdom may yet prove of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の村…その響きだけで、不思議と胸が高鳴ります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Exile’s village... The name alone sets my heart racing with curiosity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ、確かに興味深いが…なぜ我々の手助けをする？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... Intriguing, but why offer us such aid?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…暇つぶしだ。それに、このままではあまりに不公平ではないか？
+汝らは、「神」を相手にしようとしているのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... For idle amusement, perhaps. And, in truth, would it not be too unfair otherwise?
+After all, thou art on the cusp of challenging 'gods'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_exile</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -4742,7 +5005,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -4865,6 +5128,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
   </cellXfs>
@@ -5065,12 +5332,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N657"/>
+  <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L649" sqref="L649"/>
-      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
+      <selection pane="bottomLeft" activeCell="K686" sqref="K686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -5128,7 +5395,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -5152,7 +5419,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>739</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -5176,7 +5443,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>740</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -5196,7 +5463,7 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>741</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -5231,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>742</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -5251,7 +5518,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>743</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -5271,7 +5538,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -5298,7 +5565,7 @@
         <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>745</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -5320,7 +5587,7 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>746</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -5340,7 +5607,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>747</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" ht="13.8">
@@ -5360,7 +5627,7 @@
         <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>748</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -5380,7 +5647,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>749</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" ht="13.8">
@@ -5400,7 +5667,7 @@
         <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" ht="13.8">
@@ -5420,7 +5687,7 @@
         <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>751</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -5443,7 +5710,7 @@
         <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>752</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -5463,7 +5730,7 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -5495,7 +5762,7 @@
         <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>753</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -5523,7 +5790,7 @@
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>754</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -5551,7 +5818,7 @@
         <v>62</v>
       </c>
       <c r="L44" t="s">
-        <v>755</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -5579,7 +5846,7 @@
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" ht="75.35">
@@ -5593,7 +5860,7 @@
         <v>66</v>
       </c>
       <c r="L49" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" ht="85.05">
@@ -5607,7 +5874,7 @@
         <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -5635,7 +5902,7 @@
         <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" ht="105.95">
@@ -5649,7 +5916,7 @@
         <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" ht="46.25">
@@ -5663,7 +5930,7 @@
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -5687,7 +5954,7 @@
         <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>762</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" ht="74.6">
@@ -5701,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -5725,7 +5992,7 @@
         <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>764</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" ht="35.05">
@@ -5739,7 +6006,7 @@
         <v>83</v>
       </c>
       <c r="L66" t="s">
-        <v>765</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" ht="124.6">
@@ -5753,7 +6020,7 @@
         <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" ht="13.8">
@@ -5767,7 +6034,7 @@
         <v>87</v>
       </c>
       <c r="L68" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" ht="13.8">
@@ -5795,7 +6062,7 @@
         <v>91</v>
       </c>
       <c r="L70" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" ht="13.8">
@@ -5828,7 +6095,7 @@
         <v>97</v>
       </c>
       <c r="L74" t="s">
-        <v>769</v>
+        <v>844</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -5857,7 +6124,7 @@
         <v>102</v>
       </c>
       <c r="L80" t="s">
-        <v>770</v>
+        <v>845</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -5881,7 +6148,7 @@
         <v>105</v>
       </c>
       <c r="L89" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
     </row>
     <row r="90" ht="13.8">
@@ -5895,7 +6162,7 @@
         <v>107</v>
       </c>
       <c r="L90" t="s">
-        <v>772</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" ht="85.05">
@@ -5909,7 +6176,7 @@
         <v>109</v>
       </c>
       <c r="L91" t="s">
-        <v>773</v>
+        <v>848</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -5946,7 +6213,7 @@
         <v>113</v>
       </c>
       <c r="L97" t="s">
-        <v>774</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" ht="95.5">
@@ -5960,7 +6227,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>775</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -6042,7 +6309,7 @@
         <v>122</v>
       </c>
       <c r="L108" t="s">
-        <v>776</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" ht="23.85">
@@ -6059,7 +6326,7 @@
         <v>124</v>
       </c>
       <c r="L109" t="s">
-        <v>777</v>
+        <v>852</v>
       </c>
     </row>
     <row r="110" ht="13.8">
@@ -6073,7 +6340,7 @@
         <v>126</v>
       </c>
       <c r="L110" t="s">
-        <v>778</v>
+        <v>853</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -6095,7 +6362,7 @@
         <v>129</v>
       </c>
       <c r="L112" t="s">
-        <v>779</v>
+        <v>854</v>
       </c>
     </row>
     <row r="113" ht="13.8">
@@ -6123,7 +6390,7 @@
         <v>131</v>
       </c>
       <c r="L114" t="s">
-        <v>780</v>
+        <v>855</v>
       </c>
     </row>
     <row r="115" ht="13.8">
@@ -6140,7 +6407,7 @@
         <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>781</v>
+        <v>856</v>
       </c>
     </row>
     <row r="116" ht="13.8">
@@ -6157,7 +6424,7 @@
         <v>135</v>
       </c>
       <c r="L116" t="s">
-        <v>782</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" ht="13.8">
@@ -6171,7 +6438,7 @@
         <v>137</v>
       </c>
       <c r="L117" t="s">
-        <v>783</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" ht="57.45">
@@ -6185,7 +6452,7 @@
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>784</v>
+        <v>859</v>
       </c>
     </row>
     <row r="119" ht="35.05">
@@ -6199,7 +6466,7 @@
         <v>141</v>
       </c>
       <c r="L119" t="s">
-        <v>785</v>
+        <v>860</v>
       </c>
     </row>
     <row r="120" ht="23.85">
@@ -6216,7 +6483,7 @@
         <v>143</v>
       </c>
       <c r="L120" t="s">
-        <v>786</v>
+        <v>861</v>
       </c>
     </row>
     <row r="121" ht="13.8">
@@ -6230,7 +6497,7 @@
         <v>145</v>
       </c>
       <c r="L121" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="122" ht="13.8">
@@ -6264,7 +6531,7 @@
         <v>147</v>
       </c>
       <c r="L123" t="s">
-        <v>788</v>
+        <v>863</v>
       </c>
     </row>
     <row r="124" ht="13.8">
@@ -6281,7 +6548,7 @@
         <v>149</v>
       </c>
       <c r="L124" t="s">
-        <v>789</v>
+        <v>864</v>
       </c>
     </row>
     <row r="125" ht="13.8">
@@ -6338,7 +6605,7 @@
         <v>156</v>
       </c>
       <c r="L134" t="s">
-        <v>790</v>
+        <v>865</v>
       </c>
     </row>
     <row r="135" ht="57.45">
@@ -6352,7 +6619,7 @@
         <v>158</v>
       </c>
       <c r="L135" t="s">
-        <v>791</v>
+        <v>866</v>
       </c>
     </row>
     <row r="136" ht="13.8">
@@ -6369,7 +6636,7 @@
         <v>160</v>
       </c>
       <c r="L136" t="s">
-        <v>792</v>
+        <v>867</v>
       </c>
     </row>
     <row r="137" ht="35.05">
@@ -6383,7 +6650,7 @@
         <v>162</v>
       </c>
       <c r="L137" t="s">
-        <v>793</v>
+        <v>868</v>
       </c>
     </row>
     <row r="138" ht="35.05">
@@ -6400,7 +6667,7 @@
         <v>164</v>
       </c>
       <c r="L138" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
     </row>
     <row r="139" ht="13.8">
@@ -6431,7 +6698,7 @@
         <v>166</v>
       </c>
       <c r="L140" t="s">
-        <v>795</v>
+        <v>870</v>
       </c>
     </row>
     <row r="141" ht="13.8">
@@ -6445,7 +6712,7 @@
         <v>168</v>
       </c>
       <c r="L141" t="s">
-        <v>796</v>
+        <v>871</v>
       </c>
     </row>
     <row r="142" ht="68.65">
@@ -6459,7 +6726,7 @@
         <v>170</v>
       </c>
       <c r="L142" t="s">
-        <v>797</v>
+        <v>872</v>
       </c>
     </row>
     <row r="143" ht="23.85">
@@ -6476,7 +6743,7 @@
         <v>172</v>
       </c>
       <c r="L143" t="s">
-        <v>798</v>
+        <v>873</v>
       </c>
     </row>
     <row r="144" ht="13.8">
@@ -6490,7 +6757,7 @@
         <v>137</v>
       </c>
       <c r="L144" t="s">
-        <v>783</v>
+        <v>858</v>
       </c>
     </row>
     <row r="145" ht="68.65">
@@ -6507,7 +6774,7 @@
         <v>174</v>
       </c>
       <c r="L145" t="s">
-        <v>799</v>
+        <v>874</v>
       </c>
     </row>
     <row r="146" ht="13.8">
@@ -6521,7 +6788,7 @@
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>800</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" ht="13.8">
@@ -6538,7 +6805,7 @@
         <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>801</v>
+        <v>876</v>
       </c>
     </row>
     <row r="148" ht="23.85">
@@ -6552,7 +6819,7 @@
         <v>180</v>
       </c>
       <c r="L148" t="s">
-        <v>802</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -6616,7 +6883,7 @@
         <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>803</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" ht="23.85">
@@ -6630,7 +6897,7 @@
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>804</v>
+        <v>879</v>
       </c>
     </row>
     <row r="160" ht="23.85">
@@ -6647,7 +6914,7 @@
         <v>190</v>
       </c>
       <c r="L160" t="s">
-        <v>805</v>
+        <v>880</v>
       </c>
     </row>
     <row r="161" ht="68.65">
@@ -6661,7 +6928,7 @@
         <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>806</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" ht="91">
@@ -6675,7 +6942,7 @@
         <v>194</v>
       </c>
       <c r="L162" t="s">
-        <v>807</v>
+        <v>882</v>
       </c>
     </row>
     <row r="163" ht="46.25">
@@ -6689,7 +6956,7 @@
         <v>196</v>
       </c>
       <c r="L163" t="s">
-        <v>808</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" ht="13.8">
@@ -6720,7 +6987,7 @@
         <v>199</v>
       </c>
       <c r="L165" t="s">
-        <v>809</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" ht="57.45">
@@ -6737,7 +7004,7 @@
         <v>201</v>
       </c>
       <c r="L166" t="s">
-        <v>810</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167" ht="13.8">
@@ -6771,7 +7038,7 @@
         <v>203</v>
       </c>
       <c r="L168" t="s">
-        <v>811</v>
+        <v>886</v>
       </c>
     </row>
     <row r="169" ht="23.85">
@@ -6785,7 +7052,7 @@
         <v>205</v>
       </c>
       <c r="L169" t="s">
-        <v>812</v>
+        <v>887</v>
       </c>
     </row>
     <row r="170" ht="35.05">
@@ -6802,7 +7069,7 @@
         <v>207</v>
       </c>
       <c r="L170" t="s">
-        <v>813</v>
+        <v>888</v>
       </c>
     </row>
     <row r="171" ht="35.05">
@@ -6816,7 +7083,7 @@
         <v>209</v>
       </c>
       <c r="L171" t="s">
-        <v>814</v>
+        <v>889</v>
       </c>
     </row>
     <row r="172" ht="56.7">
@@ -6830,7 +7097,7 @@
         <v>211</v>
       </c>
       <c r="L172" t="s">
-        <v>815</v>
+        <v>890</v>
       </c>
     </row>
     <row r="173" ht="13.8">
@@ -6891,7 +7158,7 @@
         <v>215</v>
       </c>
       <c r="L182" t="s">
-        <v>816</v>
+        <v>891</v>
       </c>
     </row>
     <row r="183" ht="13.8">
@@ -6908,7 +7175,7 @@
         <v>217</v>
       </c>
       <c r="L183" t="s">
-        <v>817</v>
+        <v>892</v>
       </c>
     </row>
     <row r="184" ht="24.6">
@@ -6922,7 +7189,7 @@
         <v>219</v>
       </c>
       <c r="L184" t="s">
-        <v>818</v>
+        <v>893</v>
       </c>
     </row>
     <row r="185" ht="13.8">
@@ -6970,7 +7237,7 @@
         <v>221</v>
       </c>
       <c r="L187" t="s">
-        <v>819</v>
+        <v>894</v>
       </c>
     </row>
     <row r="188" ht="35.05">
@@ -6984,7 +7251,7 @@
         <v>223</v>
       </c>
       <c r="L188" t="s">
-        <v>820</v>
+        <v>895</v>
       </c>
     </row>
     <row r="189" ht="13.8">
@@ -7032,7 +7299,7 @@
         <v>225</v>
       </c>
       <c r="L191" t="s">
-        <v>821</v>
+        <v>896</v>
       </c>
     </row>
     <row r="192" ht="35.05">
@@ -7046,7 +7313,7 @@
         <v>227</v>
       </c>
       <c r="L192" t="s">
-        <v>822</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" ht="13.8">
@@ -7091,7 +7358,7 @@
         <v>229</v>
       </c>
       <c r="L195" t="s">
-        <v>823</v>
+        <v>898</v>
       </c>
     </row>
     <row r="196" ht="13.8">
@@ -7108,7 +7375,7 @@
         <v>231</v>
       </c>
       <c r="L196" t="s">
-        <v>824</v>
+        <v>899</v>
       </c>
     </row>
     <row r="197" ht="23.85">
@@ -7122,7 +7389,7 @@
         <v>233</v>
       </c>
       <c r="L197" t="s">
-        <v>825</v>
+        <v>900</v>
       </c>
     </row>
     <row r="198" ht="13.8">
@@ -7150,7 +7417,7 @@
         <v>235</v>
       </c>
       <c r="L199" t="s">
-        <v>826</v>
+        <v>901</v>
       </c>
     </row>
     <row r="200" ht="13.8">
@@ -7181,7 +7448,7 @@
         <v>237</v>
       </c>
       <c r="L201" t="s">
-        <v>827</v>
+        <v>902</v>
       </c>
     </row>
     <row r="202" ht="13.8">
@@ -7198,7 +7465,7 @@
         <v>239</v>
       </c>
       <c r="L202" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
     </row>
     <row r="203" ht="13.8">
@@ -7212,7 +7479,7 @@
         <v>241</v>
       </c>
       <c r="L203" t="s">
-        <v>829</v>
+        <v>904</v>
       </c>
     </row>
     <row r="204" ht="13.8">
@@ -7240,7 +7507,7 @@
         <v>243</v>
       </c>
       <c r="L205" t="s">
-        <v>830</v>
+        <v>905</v>
       </c>
     </row>
     <row r="206" ht="13.8">
@@ -7302,7 +7569,7 @@
         <v>246</v>
       </c>
       <c r="L216" t="s">
-        <v>831</v>
+        <v>906</v>
       </c>
     </row>
     <row r="217" ht="13.8">
@@ -7319,7 +7586,7 @@
         <v>248</v>
       </c>
       <c r="L217" t="s">
-        <v>832</v>
+        <v>907</v>
       </c>
     </row>
     <row r="218" ht="68.65">
@@ -7333,7 +7600,7 @@
         <v>250</v>
       </c>
       <c r="L218" t="s">
-        <v>833</v>
+        <v>908</v>
       </c>
     </row>
     <row r="219" ht="64.15">
@@ -7350,7 +7617,7 @@
         <v>252</v>
       </c>
       <c r="L219" t="s">
-        <v>834</v>
+        <v>909</v>
       </c>
     </row>
     <row r="220" ht="13.8">
@@ -7364,7 +7631,7 @@
         <v>254</v>
       </c>
       <c r="L220" t="s">
-        <v>835</v>
+        <v>910</v>
       </c>
     </row>
     <row r="221" ht="13.8">
@@ -7398,7 +7665,7 @@
         <v>256</v>
       </c>
       <c r="L222" t="s">
-        <v>836</v>
+        <v>911</v>
       </c>
     </row>
     <row r="223" ht="13.8">
@@ -7426,7 +7693,7 @@
         <v>258</v>
       </c>
       <c r="L224" t="s">
-        <v>837</v>
+        <v>912</v>
       </c>
     </row>
     <row r="225" ht="46.25">
@@ -7443,7 +7710,7 @@
         <v>260</v>
       </c>
       <c r="L225" t="s">
-        <v>838</v>
+        <v>913</v>
       </c>
     </row>
     <row r="226" ht="13.8">
@@ -7460,7 +7727,7 @@
         <v>262</v>
       </c>
       <c r="L226" t="s">
-        <v>839</v>
+        <v>914</v>
       </c>
     </row>
     <row r="227" ht="13.8">
@@ -7474,7 +7741,7 @@
         <v>264</v>
       </c>
       <c r="L227" t="s">
-        <v>840</v>
+        <v>915</v>
       </c>
     </row>
     <row r="228" ht="13.4">
@@ -7488,7 +7755,7 @@
         <v>266</v>
       </c>
       <c r="L228" t="s">
-        <v>841</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" ht="35.05">
@@ -7502,7 +7769,7 @@
         <v>268</v>
       </c>
       <c r="L229" t="s">
-        <v>842</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" ht="13.8">
@@ -7540,7 +7807,7 @@
         <v>272</v>
       </c>
       <c r="L239" t="s">
-        <v>843</v>
+        <v>918</v>
       </c>
     </row>
     <row r="240" ht="57.45">
@@ -7554,7 +7821,7 @@
         <v>274</v>
       </c>
       <c r="L240" t="s">
-        <v>844</v>
+        <v>919</v>
       </c>
     </row>
     <row r="241" ht="12.8">
@@ -7584,7 +7851,7 @@
         <v>277</v>
       </c>
       <c r="L244" t="s">
-        <v>845</v>
+        <v>920</v>
       </c>
     </row>
     <row r="245" ht="64.15">
@@ -7598,7 +7865,7 @@
         <v>279</v>
       </c>
       <c r="L245" t="s">
-        <v>846</v>
+        <v>921</v>
       </c>
     </row>
     <row r="246" ht="13.8">
@@ -7627,7 +7894,7 @@
         <v>281</v>
       </c>
       <c r="L247" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
     </row>
     <row r="248" ht="13.8">
@@ -7658,7 +7925,7 @@
         <v>283</v>
       </c>
       <c r="L249" t="s">
-        <v>848</v>
+        <v>923</v>
       </c>
     </row>
     <row r="250" ht="35.05">
@@ -7672,7 +7939,7 @@
         <v>285</v>
       </c>
       <c r="L250" t="s">
-        <v>849</v>
+        <v>924</v>
       </c>
     </row>
     <row r="251" ht="91">
@@ -7686,7 +7953,7 @@
         <v>287</v>
       </c>
       <c r="L251" t="s">
-        <v>850</v>
+        <v>925</v>
       </c>
     </row>
     <row r="252" ht="64.15">
@@ -7700,7 +7967,7 @@
         <v>289</v>
       </c>
       <c r="L252" t="s">
-        <v>851</v>
+        <v>926</v>
       </c>
     </row>
     <row r="253" ht="13.8">
@@ -7734,7 +8001,7 @@
         <v>292</v>
       </c>
       <c r="L257" t="s">
-        <v>852</v>
+        <v>927</v>
       </c>
     </row>
     <row r="258" ht="64.15">
@@ -7748,7 +8015,7 @@
         <v>294</v>
       </c>
       <c r="L258" t="s">
-        <v>853</v>
+        <v>928</v>
       </c>
     </row>
     <row r="259" ht="13.8">
@@ -7771,7 +8038,7 @@
         <v>297</v>
       </c>
       <c r="L260" t="s">
-        <v>854</v>
+        <v>929</v>
       </c>
     </row>
     <row r="261" ht="12.8">
@@ -7806,7 +8073,7 @@
         <v>300</v>
       </c>
       <c r="L266" t="s">
-        <v>855</v>
+        <v>930</v>
       </c>
     </row>
     <row r="267" ht="23.85">
@@ -7820,7 +8087,7 @@
         <v>302</v>
       </c>
       <c r="L267" t="s">
-        <v>856</v>
+        <v>931</v>
       </c>
     </row>
     <row r="268" ht="35.05">
@@ -7834,7 +8101,7 @@
         <v>304</v>
       </c>
       <c r="L268" t="s">
-        <v>857</v>
+        <v>932</v>
       </c>
     </row>
     <row r="269" ht="35.05">
@@ -7848,7 +8115,7 @@
         <v>306</v>
       </c>
       <c r="L269" t="s">
-        <v>858</v>
+        <v>933</v>
       </c>
     </row>
     <row r="270" ht="68.65">
@@ -7862,7 +8129,7 @@
         <v>308</v>
       </c>
       <c r="L270" t="s">
-        <v>859</v>
+        <v>934</v>
       </c>
     </row>
     <row r="271" ht="12.8">
@@ -7916,7 +8183,7 @@
         <v>313</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>860</v>
+        <v>935</v>
       </c>
     </row>
     <row r="280" ht="12.8">
@@ -7933,7 +8200,7 @@
         <v>315</v>
       </c>
       <c r="L280" t="s">
-        <v>861</v>
+        <v>936</v>
       </c>
     </row>
     <row r="281" ht="12.8">
@@ -7947,7 +8214,7 @@
         <v>317</v>
       </c>
       <c r="L281" t="s">
-        <v>862</v>
+        <v>937</v>
       </c>
     </row>
     <row r="282" ht="12.8">
@@ -7978,7 +8245,7 @@
         <v>319</v>
       </c>
       <c r="L283" t="s">
-        <v>863</v>
+        <v>938</v>
       </c>
     </row>
     <row r="284" ht="43.25">
@@ -7992,7 +8259,7 @@
         <v>321</v>
       </c>
       <c r="L284" t="s">
-        <v>864</v>
+        <v>939</v>
       </c>
     </row>
     <row r="285" ht="68.65">
@@ -8006,7 +8273,7 @@
         <v>323</v>
       </c>
       <c r="L285" t="s">
-        <v>865</v>
+        <v>940</v>
       </c>
     </row>
     <row r="286" ht="23.85">
@@ -8020,7 +8287,7 @@
         <v>325</v>
       </c>
       <c r="L286" t="s">
-        <v>866</v>
+        <v>941</v>
       </c>
     </row>
     <row r="287" ht="12.8">
@@ -8057,7 +8324,7 @@
         <v>331</v>
       </c>
       <c r="L294" t="s">
-        <v>867</v>
+        <v>942</v>
       </c>
     </row>
     <row r="295" ht="12.8">
@@ -8088,7 +8355,7 @@
         <v>333</v>
       </c>
       <c r="L296" t="s">
-        <v>868</v>
+        <v>943</v>
       </c>
     </row>
     <row r="297" ht="95.5">
@@ -8105,7 +8372,7 @@
         <v>335</v>
       </c>
       <c r="L297" t="s">
-        <v>869</v>
+        <v>944</v>
       </c>
     </row>
     <row r="298" ht="13.8">
@@ -8136,7 +8403,7 @@
         <v>337</v>
       </c>
       <c r="L299" t="s">
-        <v>870</v>
+        <v>945</v>
       </c>
     </row>
     <row r="300" ht="85.8">
@@ -8153,7 +8420,7 @@
         <v>339</v>
       </c>
       <c r="L300" t="s">
-        <v>871</v>
+        <v>946</v>
       </c>
     </row>
     <row r="301" ht="13.8">
@@ -8167,7 +8434,7 @@
         <v>341</v>
       </c>
       <c r="L301" t="s">
-        <v>872</v>
+        <v>947</v>
       </c>
     </row>
     <row r="302" ht="13.8">
@@ -8212,7 +8479,7 @@
         <v>343</v>
       </c>
       <c r="L304" t="s">
-        <v>873</v>
+        <v>948</v>
       </c>
     </row>
     <row r="305" ht="13.8">
@@ -8229,7 +8496,7 @@
         <v>345</v>
       </c>
       <c r="L305" t="s">
-        <v>874</v>
+        <v>949</v>
       </c>
     </row>
     <row r="306" ht="46.25">
@@ -8243,7 +8510,7 @@
         <v>347</v>
       </c>
       <c r="L306" t="s">
-        <v>875</v>
+        <v>950</v>
       </c>
     </row>
     <row r="307" ht="13.8">
@@ -8260,7 +8527,7 @@
         <v>349</v>
       </c>
       <c r="L307" t="s">
-        <v>876</v>
+        <v>951</v>
       </c>
     </row>
     <row r="308" ht="35.05">
@@ -8274,7 +8541,7 @@
         <v>351</v>
       </c>
       <c r="L308" t="s">
-        <v>877</v>
+        <v>952</v>
       </c>
     </row>
     <row r="309" ht="13.8">
@@ -8291,7 +8558,7 @@
         <v>353</v>
       </c>
       <c r="L309" t="s">
-        <v>878</v>
+        <v>953</v>
       </c>
     </row>
     <row r="310" ht="13.8">
@@ -8319,7 +8586,7 @@
         <v>355</v>
       </c>
       <c r="L311" t="s">
-        <v>879</v>
+        <v>954</v>
       </c>
     </row>
     <row r="312" ht="64.15">
@@ -8333,7 +8600,7 @@
         <v>357</v>
       </c>
       <c r="L312" t="s">
-        <v>880</v>
+        <v>955</v>
       </c>
     </row>
     <row r="313" ht="13.8">
@@ -8360,7 +8627,7 @@
         <v>360</v>
       </c>
       <c r="L318" t="s">
-        <v>881</v>
+        <v>956</v>
       </c>
     </row>
     <row r="319" ht="116.4">
@@ -8374,7 +8641,7 @@
         <v>362</v>
       </c>
       <c r="L319" t="s">
-        <v>882</v>
+        <v>957</v>
       </c>
     </row>
     <row r="320" ht="13.8">
@@ -8398,7 +8665,7 @@
         <v>366</v>
       </c>
       <c r="L321" t="s">
-        <v>883</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" ht="57.45">
@@ -8412,7 +8679,7 @@
         <v>368</v>
       </c>
       <c r="L322" t="s">
-        <v>884</v>
+        <v>959</v>
       </c>
     </row>
     <row r="323" ht="13.8">
@@ -8451,7 +8718,7 @@
         <v>371</v>
       </c>
       <c r="L330" t="s">
-        <v>885</v>
+        <v>960</v>
       </c>
     </row>
     <row r="331" ht="13.8">
@@ -8465,7 +8732,7 @@
         <v>373</v>
       </c>
       <c r="L331" t="s">
-        <v>886</v>
+        <v>961</v>
       </c>
     </row>
     <row r="332" ht="85.05">
@@ -8482,7 +8749,7 @@
         <v>375</v>
       </c>
       <c r="L332" t="s">
-        <v>887</v>
+        <v>962</v>
       </c>
     </row>
     <row r="333" ht="57.45">
@@ -8496,7 +8763,7 @@
         <v>377</v>
       </c>
       <c r="L333" t="s">
-        <v>888</v>
+        <v>963</v>
       </c>
     </row>
     <row r="334" ht="12.8">
@@ -8521,7 +8788,7 @@
         <v>379</v>
       </c>
       <c r="L336" t="s">
-        <v>889</v>
+        <v>964</v>
       </c>
     </row>
     <row r="338" ht="12.8">
@@ -8566,7 +8833,7 @@
         <v>385</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>890</v>
+        <v>965</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="12.8">
@@ -8659,7 +8926,7 @@
         <v>387</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>891</v>
+        <v>966</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="13.8">
@@ -8683,7 +8950,7 @@
         <v>389</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>892</v>
+        <v>967</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="57.45">
@@ -8707,7 +8974,7 @@
         <v>391</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>893</v>
+        <v>968</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="12.8">
@@ -8731,7 +8998,7 @@
         <v>393</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>894</v>
+        <v>969</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="35.05">
@@ -8755,7 +9022,7 @@
         <v>395</v>
       </c>
       <c r="L354" s="4" t="s">
-        <v>895</v>
+        <v>970</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="13.8">
@@ -8803,7 +9070,7 @@
         <v>397</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>896</v>
+        <v>971</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="13.8">
@@ -8827,7 +9094,7 @@
         <v>399</v>
       </c>
       <c r="L357" s="4" t="s">
-        <v>897</v>
+        <v>972</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22.35">
@@ -8875,7 +9142,7 @@
         <v>401</v>
       </c>
       <c r="L359" s="4" t="s">
-        <v>898</v>
+        <v>973</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="23.85">
@@ -8899,7 +9166,7 @@
         <v>403</v>
       </c>
       <c r="L360" s="4" t="s">
-        <v>899</v>
+        <v>974</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="23.85">
@@ -8923,7 +9190,7 @@
         <v>405</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>900</v>
+        <v>975</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="13.8">
@@ -9015,7 +9282,7 @@
         <v>410</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>901</v>
+        <v>976</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="13.8">
@@ -9087,7 +9354,7 @@
         <v>412</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="12.8">
@@ -9111,7 +9378,7 @@
         <v>414</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>903</v>
+        <v>978</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="12.8">
@@ -9135,7 +9402,7 @@
         <v>416</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>904</v>
+        <v>979</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="23.85">
@@ -9159,7 +9426,7 @@
         <v>418</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>905</v>
+        <v>980</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="23.85">
@@ -9183,7 +9450,7 @@
         <v>420</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>906</v>
+        <v>981</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="12.8">
@@ -9224,7 +9491,7 @@
         <v>422</v>
       </c>
       <c r="L375" s="4" t="s">
-        <v>907</v>
+        <v>982</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="12.8">
@@ -9273,7 +9540,7 @@
         <v>424</v>
       </c>
       <c r="L378" s="4" t="s">
-        <v>908</v>
+        <v>983</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="12.8">
@@ -9297,7 +9564,7 @@
         <v>426</v>
       </c>
       <c r="L379" s="4" t="s">
-        <v>909</v>
+        <v>984</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="12.8">
@@ -9345,7 +9612,7 @@
         <v>428</v>
       </c>
       <c r="L381" s="4" t="s">
-        <v>910</v>
+        <v>985</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="23.85">
@@ -9369,7 +9636,7 @@
         <v>430</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>911</v>
+        <v>986</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="12.8">
@@ -9393,7 +9660,7 @@
         <v>432</v>
       </c>
       <c r="L383" s="4" t="s">
-        <v>912</v>
+        <v>987</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="35.05">
@@ -9417,7 +9684,7 @@
         <v>434</v>
       </c>
       <c r="L384" s="4" t="s">
-        <v>913</v>
+        <v>988</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="13.8">
@@ -9441,7 +9708,7 @@
         <v>436</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>914</v>
+        <v>989</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="13.8">
@@ -9465,7 +9732,7 @@
         <v>438</v>
       </c>
       <c r="L386" s="4" t="s">
-        <v>915</v>
+        <v>990</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="13.8">
@@ -9489,7 +9756,7 @@
         <v>440</v>
       </c>
       <c r="L387" s="4" t="s">
-        <v>916</v>
+        <v>991</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="13.8">
@@ -9513,7 +9780,7 @@
         <v>442</v>
       </c>
       <c r="L388" s="4" t="s">
-        <v>917</v>
+        <v>992</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="13.8">
@@ -9537,7 +9804,7 @@
         <v>444</v>
       </c>
       <c r="L389" s="4" t="s">
-        <v>918</v>
+        <v>993</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="13.8">
@@ -9561,7 +9828,7 @@
         <v>446</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>919</v>
+        <v>994</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="13.8">
@@ -9585,7 +9852,7 @@
         <v>448</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>920</v>
+        <v>995</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="23.85">
@@ -9609,7 +9876,7 @@
         <v>450</v>
       </c>
       <c r="L392" s="4" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="13.8">
@@ -9633,7 +9900,7 @@
         <v>452</v>
       </c>
       <c r="L393" s="4" t="s">
-        <v>922</v>
+        <v>997</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="13.8">
@@ -9670,7 +9937,7 @@
         <v>454</v>
       </c>
       <c r="L395" s="4" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="13.8">
@@ -9694,7 +9961,7 @@
         <v>456</v>
       </c>
       <c r="L396" s="4" t="s">
-        <v>924</v>
+        <v>999</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="13.8">
@@ -9731,7 +9998,7 @@
         <v>458</v>
       </c>
       <c r="L398" s="4" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="13.8">
@@ -9755,7 +10022,7 @@
         <v>460</v>
       </c>
       <c r="L399" s="4" t="s">
-        <v>925</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="13.8">
@@ -9816,7 +10083,7 @@
         <v>462</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>926</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="13.8">
@@ -9864,7 +10131,7 @@
         <v>464</v>
       </c>
       <c r="L404" s="4" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="13.8">
@@ -9888,7 +10155,7 @@
         <v>466</v>
       </c>
       <c r="L405" s="4" t="s">
-        <v>928</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="23.85">
@@ -9912,7 +10179,7 @@
         <v>468</v>
       </c>
       <c r="L406" s="4" t="s">
-        <v>929</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="23.85">
@@ -9936,7 +10203,7 @@
         <v>470</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>930</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="35.05">
@@ -9960,7 +10227,7 @@
         <v>472</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>931</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="13.8">
@@ -9984,7 +10251,7 @@
         <v>474</v>
       </c>
       <c r="L409" s="4" t="s">
-        <v>932</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="13.8">
@@ -10008,7 +10275,7 @@
         <v>476</v>
       </c>
       <c r="L410" s="4" t="s">
-        <v>933</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="13.8">
@@ -10056,7 +10323,7 @@
         <v>478</v>
       </c>
       <c r="L412" s="4" t="s">
-        <v>934</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="23.85">
@@ -10080,7 +10347,7 @@
         <v>480</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>935</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="13.8">
@@ -10104,7 +10371,7 @@
         <v>482</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>936</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="57.45">
@@ -10128,7 +10395,7 @@
         <v>484</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>937</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="13.8">
@@ -10152,7 +10419,7 @@
         <v>486</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>938</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="13.8">
@@ -10176,7 +10443,7 @@
         <v>458</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="13.8">
@@ -10224,7 +10491,7 @@
         <v>488</v>
       </c>
       <c r="L419" s="4" t="s">
-        <v>939</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="13.8">
@@ -10272,7 +10539,7 @@
         <v>490</v>
       </c>
       <c r="L421" s="4" t="s">
-        <v>940</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="13.8">
@@ -10296,7 +10563,7 @@
         <v>492</v>
       </c>
       <c r="L422" s="4" t="s">
-        <v>941</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="12.8">
@@ -10376,7 +10643,7 @@
         <v>496</v>
       </c>
       <c r="L430" s="4" t="s">
-        <v>942</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="13.8">
@@ -10400,7 +10667,7 @@
         <v>498</v>
       </c>
       <c r="L431" s="4" t="s">
-        <v>943</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="25.35">
@@ -10422,7 +10689,7 @@
         <v>500</v>
       </c>
       <c r="L432" s="4" t="s">
-        <v>944</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="102.2">
@@ -10446,7 +10713,7 @@
         <v>502</v>
       </c>
       <c r="L433" s="4" t="s">
-        <v>945</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="13.8">
@@ -10470,7 +10737,7 @@
         <v>504</v>
       </c>
       <c r="L434" s="4" t="s">
-        <v>946</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="13.8">
@@ -10494,7 +10761,7 @@
         <v>505</v>
       </c>
       <c r="L435" s="4" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="23.85">
@@ -10518,7 +10785,7 @@
         <v>507</v>
       </c>
       <c r="L436" s="4" t="s">
-        <v>947</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="57.45">
@@ -10542,7 +10809,7 @@
         <v>509</v>
       </c>
       <c r="L437" s="4" t="s">
-        <v>948</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="46.25">
@@ -10564,7 +10831,7 @@
         <v>511</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>949</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="13.8">
@@ -10588,7 +10855,7 @@
         <v>513</v>
       </c>
       <c r="L439" s="4" t="s">
-        <v>950</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="23.85">
@@ -10610,7 +10877,7 @@
         <v>515</v>
       </c>
       <c r="L440" s="4" t="s">
-        <v>951</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="441" ht="12.8">
@@ -10647,7 +10914,7 @@
         <v>215</v>
       </c>
       <c r="L446" t="s">
-        <v>952</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="447" ht="23.85">
@@ -10662,7 +10929,7 @@
         <v>217</v>
       </c>
       <c r="L447" t="s">
-        <v>953</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="448" ht="13.8">
@@ -10675,7 +10942,7 @@
       </c>
       <c r="K448" s="14"/>
       <c r="L448" t="s">
-        <v>954</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="449" ht="35.05">
@@ -10688,7 +10955,7 @@
       </c>
       <c r="K449" s="14"/>
       <c r="L449" t="s">
-        <v>955</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="450" ht="13.8">
@@ -10701,7 +10968,7 @@
       </c>
       <c r="K450" s="14"/>
       <c r="L450" t="s">
-        <v>956</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="451" ht="12.8">
@@ -10738,7 +11005,7 @@
         <v>525</v>
       </c>
       <c r="L460" t="s">
-        <v>957</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="461" ht="46.25">
@@ -10752,7 +11019,7 @@
         <v>527</v>
       </c>
       <c r="L461" t="s">
-        <v>958</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="462" ht="23.85">
@@ -10769,7 +11036,7 @@
         <v>529</v>
       </c>
       <c r="L462" t="s">
-        <v>959</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="463" ht="35.05">
@@ -10783,7 +11050,7 @@
         <v>531</v>
       </c>
       <c r="L463" t="s">
-        <v>960</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="464" ht="35.05">
@@ -10797,7 +11064,7 @@
         <v>533</v>
       </c>
       <c r="L464" t="s">
-        <v>961</v>
+        <v>1036</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -10816,7 +11083,7 @@
         <v>535</v>
       </c>
       <c r="L465" t="s">
-        <v>962</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="466" ht="37.3">
@@ -10830,7 +11097,7 @@
         <v>537</v>
       </c>
       <c r="L466" t="s">
-        <v>963</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="467" ht="13.8">
@@ -10844,7 +11111,7 @@
         <v>539</v>
       </c>
       <c r="L467" t="s">
-        <v>964</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="468" ht="13.8">
@@ -10858,7 +11125,7 @@
         <v>541</v>
       </c>
       <c r="L468" t="s">
-        <v>965</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="469" ht="13.8">
@@ -10902,7 +11169,7 @@
         <v>543</v>
       </c>
       <c r="L471" t="s">
-        <v>966</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="472" ht="35.05">
@@ -10919,7 +11186,7 @@
         <v>545</v>
       </c>
       <c r="L472" t="s">
-        <v>967</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="473" ht="13.8">
@@ -10933,7 +11200,7 @@
         <v>547</v>
       </c>
       <c r="L473" t="s">
-        <v>968</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="474" ht="13.8">
@@ -10960,7 +11227,7 @@
         <v>549</v>
       </c>
       <c r="L475" t="s">
-        <v>969</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="476" ht="13.8">
@@ -10977,7 +11244,7 @@
         <v>551</v>
       </c>
       <c r="L476" t="s">
-        <v>970</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="477" ht="79.85">
@@ -10994,7 +11261,7 @@
         <v>553</v>
       </c>
       <c r="L477" t="s">
-        <v>971</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="478" ht="102.2">
@@ -11011,7 +11278,7 @@
         <v>555</v>
       </c>
       <c r="L478" t="s">
-        <v>972</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="479" ht="13.8">
@@ -11042,7 +11309,7 @@
         <v>557</v>
       </c>
       <c r="L480" t="s">
-        <v>973</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="481" ht="23.85">
@@ -11059,7 +11326,7 @@
         <v>559</v>
       </c>
       <c r="L481" t="s">
-        <v>974</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="482" ht="23.85">
@@ -11076,7 +11343,7 @@
         <v>561</v>
       </c>
       <c r="L482" t="s">
-        <v>975</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="483" ht="13.8">
@@ -11093,7 +11360,7 @@
         <v>513</v>
       </c>
       <c r="L483" t="s">
-        <v>950</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="484" ht="13.8">
@@ -11107,7 +11374,7 @@
         <v>564</v>
       </c>
       <c r="L484" t="s">
-        <v>976</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="485" ht="13.8">
@@ -11135,7 +11402,7 @@
         <v>566</v>
       </c>
       <c r="L486" t="s">
-        <v>977</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="487" ht="46.25">
@@ -11149,7 +11416,7 @@
         <v>568</v>
       </c>
       <c r="L487" t="s">
-        <v>978</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="488" ht="35.05">
@@ -11163,7 +11430,7 @@
         <v>570</v>
       </c>
       <c r="L488" t="s">
-        <v>979</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="489" ht="35.05">
@@ -11177,7 +11444,7 @@
         <v>572</v>
       </c>
       <c r="L489" t="s">
-        <v>980</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="490" ht="46.25">
@@ -11191,7 +11458,7 @@
         <v>574</v>
       </c>
       <c r="L490" t="s">
-        <v>981</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="491" ht="13.8">
@@ -11227,7 +11494,7 @@
         <v>578</v>
       </c>
       <c r="L498" t="s">
-        <v>982</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="499" ht="79.85">
@@ -11241,7 +11508,7 @@
         <v>580</v>
       </c>
       <c r="L499" t="s">
-        <v>983</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="500" ht="12.8">
@@ -11273,7 +11540,7 @@
         <v>584</v>
       </c>
       <c r="L506" t="s">
-        <v>984</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="507" ht="13.8">
@@ -11301,7 +11568,7 @@
         <v>586</v>
       </c>
       <c r="L508" t="s">
-        <v>985</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="509" ht="13.8">
@@ -11334,7 +11601,7 @@
         <v>589</v>
       </c>
       <c r="L513" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="514" ht="13.8">
@@ -11362,7 +11629,7 @@
         <v>591</v>
       </c>
       <c r="L515" t="s">
-        <v>987</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="516" ht="13.8">
@@ -11395,7 +11662,7 @@
         <v>594</v>
       </c>
       <c r="L520" t="s">
-        <v>988</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="521" ht="79.85">
@@ -11409,7 +11676,7 @@
         <v>596</v>
       </c>
       <c r="L521" t="s">
-        <v>989</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="522" ht="13.8">
@@ -11450,7 +11717,7 @@
         <v>599</v>
       </c>
       <c r="L527" t="s">
-        <v>990</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="528" ht="13.8">
@@ -11468,7 +11735,7 @@
         <v>601</v>
       </c>
       <c r="L529" t="s">
-        <v>991</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="530" ht="13.8">
@@ -11495,7 +11762,7 @@
         <v>603</v>
       </c>
       <c r="L532" t="s">
-        <v>992</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="533" ht="43.25">
@@ -11509,7 +11776,7 @@
         <v>605</v>
       </c>
       <c r="L533" t="s">
-        <v>993</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="534" ht="57.45">
@@ -11523,7 +11790,7 @@
         <v>607</v>
       </c>
       <c r="L534" t="s">
-        <v>994</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="535" ht="13.8">
@@ -11556,7 +11823,7 @@
         <v>610</v>
       </c>
       <c r="L539" t="s">
-        <v>995</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="540" ht="79.85">
@@ -11570,7 +11837,7 @@
         <v>612</v>
       </c>
       <c r="L540" t="s">
-        <v>996</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="541" ht="46.25">
@@ -11584,7 +11851,7 @@
         <v>614</v>
       </c>
       <c r="L541" t="s">
-        <v>997</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="542" ht="13.8">
@@ -11617,7 +11884,7 @@
         <v>617</v>
       </c>
       <c r="L546" t="s">
-        <v>998</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="547" ht="12.8">
@@ -11635,7 +11902,7 @@
         <v>619</v>
       </c>
       <c r="L547" t="s">
-        <v>999</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="548" ht="12.8">
@@ -11702,7 +11969,7 @@
         <v>625</v>
       </c>
       <c r="L553" t="s">
-        <v>1000</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="554" ht="13.8">
@@ -11723,7 +11990,7 @@
         <v>628</v>
       </c>
       <c r="L555" t="s">
-        <v>1001</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="556" ht="13.8">
@@ -11750,7 +12017,7 @@
         <v>633</v>
       </c>
       <c r="L557" t="s">
-        <v>1002</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="558" ht="13.8">
@@ -11767,7 +12034,7 @@
         <v>636</v>
       </c>
       <c r="L558" t="s">
-        <v>1003</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="559" ht="13.8">
@@ -11784,7 +12051,7 @@
         <v>639</v>
       </c>
       <c r="L559" t="s">
-        <v>1004</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="560" ht="13.8">
@@ -11798,7 +12065,7 @@
         <v>641</v>
       </c>
       <c r="L560" t="s">
-        <v>1005</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="561" ht="23.85">
@@ -11815,7 +12082,7 @@
         <v>643</v>
       </c>
       <c r="L561" t="s">
-        <v>1006</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="562" ht="13.8">
@@ -11842,7 +12109,7 @@
         <v>645</v>
       </c>
       <c r="L563" t="s">
-        <v>1007</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="564" ht="23.85">
@@ -11859,7 +12126,7 @@
         <v>647</v>
       </c>
       <c r="L564" t="s">
-        <v>1008</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="565" ht="13.8">
@@ -11887,7 +12154,7 @@
         <v>649</v>
       </c>
       <c r="L566" t="s">
-        <v>1009</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="567" ht="23.85">
@@ -11904,7 +12171,7 @@
         <v>651</v>
       </c>
       <c r="L567" t="s">
-        <v>1010</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="568" ht="13.8">
@@ -11921,7 +12188,7 @@
         <v>654</v>
       </c>
       <c r="L568" t="s">
-        <v>1011</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="569" ht="13.8">
@@ -11949,7 +12216,7 @@
         <v>633</v>
       </c>
       <c r="L570" t="s">
-        <v>1002</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="571" ht="13.8">
@@ -11963,7 +12230,7 @@
         <v>656</v>
       </c>
       <c r="L571" t="s">
-        <v>1012</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="572" ht="23.85">
@@ -11977,7 +12244,7 @@
         <v>658</v>
       </c>
       <c r="L572" t="s">
-        <v>1013</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="573" ht="57.45">
@@ -11994,7 +12261,7 @@
         <v>660</v>
       </c>
       <c r="L573" t="s">
-        <v>1014</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="574" ht="13.8">
@@ -12008,7 +12275,7 @@
         <v>662</v>
       </c>
       <c r="L574" t="s">
-        <v>1015</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="575" ht="13.8">
@@ -12025,7 +12292,7 @@
         <v>664</v>
       </c>
       <c r="L575" t="s">
-        <v>1016</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="576" ht="23.85">
@@ -12042,7 +12309,7 @@
         <v>666</v>
       </c>
       <c r="L576" t="s">
-        <v>1017</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="577" ht="13.8">
@@ -12056,7 +12323,7 @@
         <v>668</v>
       </c>
       <c r="L577" t="s">
-        <v>1018</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="578" ht="13.8">
@@ -12073,7 +12340,7 @@
         <v>670</v>
       </c>
       <c r="L578" t="s">
-        <v>1019</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="579" ht="23.85">
@@ -12087,7 +12354,7 @@
         <v>672</v>
       </c>
       <c r="L579" t="s">
-        <v>1020</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="580" ht="13.8">
@@ -12104,7 +12371,7 @@
         <v>674</v>
       </c>
       <c r="L580" t="s">
-        <v>1021</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="581" ht="13.8">
@@ -12139,7 +12406,7 @@
         <v>676</v>
       </c>
       <c r="L583" t="s">
-        <v>1022</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="584" ht="13.8">
@@ -12153,7 +12420,7 @@
         <v>678</v>
       </c>
       <c r="L584" t="s">
-        <v>1023</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="585" ht="46.25">
@@ -12170,7 +12437,7 @@
         <v>680</v>
       </c>
       <c r="L585" t="s">
-        <v>1024</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="586" ht="23.85">
@@ -12185,7 +12452,7 @@
         <v>682</v>
       </c>
       <c r="L586" t="s">
-        <v>1025</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="587" ht="53.7">
@@ -12202,7 +12469,7 @@
         <v>684</v>
       </c>
       <c r="L587" t="s">
-        <v>1026</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="588" ht="64.15">
@@ -12219,7 +12486,7 @@
         <v>686</v>
       </c>
       <c r="L588" t="s">
-        <v>1027</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="589" ht="13.8">
@@ -12251,7 +12518,7 @@
         <v>688</v>
       </c>
       <c r="L590" t="s">
-        <v>1028</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="591" ht="13.8">
@@ -12281,7 +12548,7 @@
         <v>690</v>
       </c>
       <c r="L592" t="s">
-        <v>1029</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="593" ht="79.85">
@@ -12298,7 +12565,7 @@
         <v>692</v>
       </c>
       <c r="L593" t="s">
-        <v>1030</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="594" ht="13.8">
@@ -12326,7 +12593,7 @@
         <v>633</v>
       </c>
       <c r="L595" t="s">
-        <v>1031</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="596" ht="13.8">
@@ -12402,7 +12669,7 @@
         <v>695</v>
       </c>
       <c r="L605" t="s">
-        <v>1032</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="606" ht="13.8">
@@ -12433,7 +12700,7 @@
         <v>697</v>
       </c>
       <c r="L607" t="s">
-        <v>1033</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="608" ht="13.8">
@@ -12546,7 +12813,7 @@
         <v>704</v>
       </c>
       <c r="L623" t="s">
-        <v>1034</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="624" ht="13.8">
@@ -12564,7 +12831,7 @@
         <v>706</v>
       </c>
       <c r="L624" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="625" ht="13.8">
@@ -12579,7 +12846,7 @@
         <v>708</v>
       </c>
       <c r="L625" t="s">
-        <v>1036</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="626" ht="13.8">
@@ -12597,7 +12864,7 @@
         <v>710</v>
       </c>
       <c r="L626" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="627" ht="13.8">
@@ -12612,7 +12879,7 @@
         <v>712</v>
       </c>
       <c r="L627" t="s">
-        <v>1038</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="628" s="1" customFormat="1" ht="13.8">
@@ -12658,7 +12925,7 @@
         <v>706</v>
       </c>
       <c r="L630" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="631" ht="13.4" customHeight="1">
@@ -12685,7 +12952,7 @@
         <v>715</v>
       </c>
       <c r="L632" t="s">
-        <v>1039</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="633" ht="13.8">
@@ -12703,7 +12970,7 @@
         <v>717</v>
       </c>
       <c r="L633" t="s">
-        <v>1040</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="634" ht="23.85">
@@ -12719,7 +12986,7 @@
         <v>719</v>
       </c>
       <c r="L634" t="s">
-        <v>1041</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="635" ht="13.8">
@@ -12739,7 +13006,7 @@
         <v>721</v>
       </c>
       <c r="L635" t="s">
-        <v>1042</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="636" ht="13.8">
@@ -12755,7 +13022,7 @@
         <v>723</v>
       </c>
       <c r="L636" t="s">
-        <v>1043</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="637" ht="13.8">
@@ -12779,7 +13046,7 @@
         <v>726</v>
       </c>
       <c r="L638" t="s">
-        <v>1044</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="639" ht="13.8">
@@ -12833,7 +13100,7 @@
         <v>728</v>
       </c>
       <c r="L641" t="s">
-        <v>1045</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="642" ht="13.8">
@@ -12869,7 +13136,7 @@
         <v>706</v>
       </c>
       <c r="L643" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="644" ht="13.8">
@@ -12905,7 +13172,7 @@
         <v>730</v>
       </c>
       <c r="L645" t="s">
-        <v>1046</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="646" ht="13.8">
@@ -12934,7 +13201,7 @@
         <v>733</v>
       </c>
       <c r="L647" t="s">
-        <v>1047</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="648" ht="13.8">
@@ -12950,7 +13217,7 @@
         <v>735</v>
       </c>
       <c r="L648" t="s">
-        <v>1048</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="649" ht="13.8">
@@ -12966,7 +13233,7 @@
         <v>737</v>
       </c>
       <c r="L649" t="s">
-        <v>1049</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="650" ht="13.8">
@@ -13013,11 +13280,555 @@
       <c r="G656" s="2"/>
     </row>
     <row r="657" ht="12.8">
+      <c r="A657" s="1" t="s">
+        <v>738</v>
+      </c>
       <c r="F657" s="1"/>
       <c r="G657" s="2"/>
     </row>
+    <row r="658" ht="12.8">
+      <c r="E658" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F658" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="659" ht="13.8">
+      <c r="I659" s="1">
+        <v>390</v>
+      </c>
+      <c r="J659" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="K659" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="660" ht="13.8">
+      <c r="G660" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I660" s="1">
+        <v>391</v>
+      </c>
+      <c r="J660" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="661" ht="13.8">
+      <c r="I661" s="1">
+        <v>392</v>
+      </c>
+      <c r="J661" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="K661" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="662" ht="13.8">
+      <c r="G662" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I662" s="1">
+        <v>393</v>
+      </c>
+      <c r="J662" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="K662" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="663" ht="13.8">
+      <c r="I663" s="1">
+        <v>394</v>
+      </c>
+      <c r="J663" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="K663" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="664" ht="35.05">
+      <c r="G664" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I664" s="1">
+        <v>395</v>
+      </c>
+      <c r="J664" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K664" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="665" ht="35.05">
+      <c r="I665" s="1">
+        <v>396</v>
+      </c>
+      <c r="J665" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="K665" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="667" ht="12.8">
+      <c r="E667" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F667" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="668" ht="12.8">
+      <c r="E668" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F668" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" ht="12.8">
+      <c r="E669" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F669" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="670" ht="12.8">
+      <c r="E670" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="671" ht="12.8">
+      <c r="E671" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F671" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" ht="13.8">
+      <c r="G672" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I672" s="1">
+        <v>397</v>
+      </c>
+      <c r="J672" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="K672" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="673" ht="13.8">
+      <c r="G673" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I673" s="1">
+        <v>398</v>
+      </c>
+      <c r="J673" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="K673" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="674" ht="13.8">
+      <c r="G674" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I674" s="1">
+        <v>399</v>
+      </c>
+      <c r="J674" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="675" ht="13.8">
+      <c r="G675" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I675" s="1">
+        <v>400</v>
+      </c>
+      <c r="J675" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="K675" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="676" ht="13.8">
+      <c r="I676" s="1">
+        <v>401</v>
+      </c>
+      <c r="J676" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="K676" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="677" ht="13.8">
+      <c r="G677" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I677" s="1">
+        <v>402</v>
+      </c>
+      <c r="J677" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="K677" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="678" ht="13.8">
+      <c r="I678" s="1">
+        <v>403</v>
+      </c>
+      <c r="J678" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="679" ht="13.8">
+      <c r="G679" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I679" s="1">
+        <v>404</v>
+      </c>
+      <c r="J679" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K679" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="680" ht="13.8">
+      <c r="I680" s="1">
+        <v>405</v>
+      </c>
+      <c r="J680" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="681" ht="35.05">
+      <c r="G681" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I681" s="1">
+        <v>406</v>
+      </c>
+      <c r="J681" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K681" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="682" ht="25.35">
+      <c r="I682" s="1">
+        <v>407</v>
+      </c>
+      <c r="J682" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="683" ht="13.8">
+      <c r="G683" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I683" s="1">
+        <v>408</v>
+      </c>
+      <c r="J683" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="K683" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="684" ht="35.05">
+      <c r="G684" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I684" s="1">
+        <v>409</v>
+      </c>
+      <c r="J684" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K684" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="685" ht="57.45">
+      <c r="G685" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I685" s="1">
+        <v>410</v>
+      </c>
+      <c r="J685" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="K685" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="686" ht="35.05">
+      <c r="G686" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I686" s="1">
+        <v>411</v>
+      </c>
+      <c r="J686" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="K686" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="687" ht="13.8">
+      <c r="G687" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I687" s="1">
+        <v>412</v>
+      </c>
+      <c r="J687" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="K687" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="688" ht="13.8">
+      <c r="J688" s="6"/>
+    </row>
+    <row r="689" ht="13.8">
+      <c r="G689" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I689" s="1">
+        <v>413</v>
+      </c>
+      <c r="J689" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="K689" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="690" ht="35.05">
+      <c r="I690" s="1">
+        <v>414</v>
+      </c>
+      <c r="J690" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="K690" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="691" ht="13.8">
+      <c r="G691" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I691" s="1">
+        <v>415</v>
+      </c>
+      <c r="J691" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="K691" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="692" ht="13.8">
+      <c r="I692" s="1">
+        <v>416</v>
+      </c>
+      <c r="J692" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="693" ht="13.8">
+      <c r="G693" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I693" s="1">
+        <v>417</v>
+      </c>
+      <c r="J693" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="K693" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="694" ht="13.8">
+      <c r="G694" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I694" s="1">
+        <v>418</v>
+      </c>
+      <c r="J694" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="695" ht="13.8">
+      <c r="J695" s="6"/>
+    </row>
+    <row r="696" ht="13.8">
+      <c r="G696" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I696" s="1">
+        <v>419</v>
+      </c>
+      <c r="J696" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="697" ht="13.8">
+      <c r="I697" s="1">
+        <v>420</v>
+      </c>
+      <c r="J697" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="K697" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="698" ht="22.35">
+      <c r="G698" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I698" s="1">
+        <v>421</v>
+      </c>
+      <c r="J698" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K698" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="699" ht="13.8">
+      <c r="G699" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I699" s="1">
+        <v>422</v>
+      </c>
+      <c r="J699" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="K699" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="700" ht="13.8">
+      <c r="G700" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I700" s="1">
+        <v>423</v>
+      </c>
+      <c r="J700" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="K700" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="701" ht="13.8">
+      <c r="I701" s="1">
+        <v>424</v>
+      </c>
+      <c r="J701" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K701" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="702" ht="35.05">
+      <c r="G702" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I702" s="1">
+        <v>425</v>
+      </c>
+      <c r="J702" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="K702" s="31" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="703" ht="13.8">
+      <c r="J703" s="6"/>
+    </row>
+    <row r="704" ht="13.8">
+      <c r="J704" s="6"/>
+    </row>
+    <row r="707" ht="12.8">
+      <c r="E707" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F707" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="709" ht="12.8">
+      <c r="E709" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I108:I339 I4:I106 J656:J657 J615:J619 J650:J651 J623 J637 I616:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598">
+  <conditionalFormatting sqref="I108:I339 I4:I106 J656 J615:J619 J650:J651 J623 J637 I658:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598 I616:I656">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I602:I610 I564:I596 I554:I561">
@@ -13025,6 +13836,9 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I562:I563">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I657:J657">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -1892,20 +1892,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at these gruesome corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    <t xml:space="preserve">焼け焦げた無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Look at these gruesome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">charred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">いや、竜はこんなことはしない。
 竜は特異な生物だ。その力を中心に運命は模様を変え、その力に魅入られた様々な存在を引き寄せる。
-この焼け焦げた死体に刻まれた印には見覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
+この焦げた死体に残る特有の匂いには覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
   </si>
   <si>
     <t xml:space="preserve">No, dragons don't do this.
 Dragons are singular creatures. Fate weaves around their power, attracting various beings drawn by it.
-I recognize these marks on the charred bodies... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
+This scorched corpse carries a scent I recognize... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
   </si>
   <si>
     <t xml:space="preserve">コルゴンの手下といったところか。よし、#pc、ここは冒険者のお前に任せる。
@@ -3671,11 +3700,11 @@
   </si>
   <si>
     <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
-我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+我は覚えているぞ。魔石について語るケトルの声はいつも、抑えきれぬ興奮と熱に震えていたことを。</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
-I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+I remember it well. Whenever he spoke of the Magic Stone, his voice trembled with barely contained fervor and heat.</t>
   </si>
   <si>
     <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
@@ -5136,7 +5165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -5259,6 +5288,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
   </cellXfs>
@@ -5461,10 +5494,10 @@
   </sheetPr>
   <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L702" sqref="L702"/>
-      <selection pane="bottomLeft" activeCell="J702" sqref="J702"/>
+      <selection pane="bottomLeft" activeCell="K325" sqref="K325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -8848,7 +8881,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="331" ht="13.8">
+    <row r="331" ht="23.85">
       <c r="I331" s="1">
         <v>166</v>
       </c>
@@ -8862,7 +8895,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="332" ht="85.05">
+    <row r="332" ht="79.85">
       <c r="G332" s="1" t="s">
         <v>182</v>
       </c>
@@ -13801,7 +13834,7 @@
       <c r="I686" s="1">
         <v>411</v>
       </c>
-      <c r="J686" s="7" t="s">
+      <c r="J686" s="31" t="s">
         <v>784</v>
       </c>
       <c r="K686" s="4" t="s">
